--- a/Opgave 1.xlsx
+++ b/Opgave 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91c933c6e1bc87e3/Dokumenter/Uni/34. PUK/Aflevering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="8_{4F4526E9-73E1-4EA3-AC33-82BC91DDE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BC9A7F-DAF3-4763-973C-525D4BA33A15}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="8_{4F4526E9-73E1-4EA3-AC33-82BC91DDE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E635BD-59C3-44E2-91F0-39C667A71B20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_opg1_crank" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
   <si>
     <t>params</t>
   </si>
@@ -179,12 +179,6 @@
     <t>Ikke nødvendt med mange dt -&gt; hurtigere udregninger</t>
   </si>
   <si>
-    <t>log_dt</t>
-  </si>
-  <si>
-    <t>log_crank</t>
-  </si>
-  <si>
     <t>log:</t>
   </si>
   <si>
@@ -199,11 +193,47 @@
   <si>
     <t>Explicit</t>
   </si>
+  <si>
+    <t>Black-FD_Crank_Implied_vol</t>
+  </si>
+  <si>
+    <t>Black-FD_implict_Implied_vol</t>
+  </si>
+  <si>
+    <t>Black-FD_explicit_Implied_vol</t>
+  </si>
+  <si>
+    <t>Black_Implied_vol</t>
+  </si>
+  <si>
+    <t>Implied volatility</t>
+  </si>
+  <si>
+    <t>Log:</t>
+  </si>
+  <si>
+    <t>Diff:</t>
+  </si>
+  <si>
+    <t>log_num</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>log_numt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,10 +271,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2806,6 +2840,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.883882136210843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.331987798891056</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>-2.530105689406922</c:v>
                 </c:pt>
@@ -3166,6 +3206,1400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Implied volatility</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_Crank_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$R$2:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20002534030348479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20002078060874365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20000830487356072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20000599355682783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20000518452783411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20000460662834008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20000440435925607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20000420931197127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20000416054983156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20000414835927341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20000414531166416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20000414454976045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-02F4-4705-B2B2-E682965CBDCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_implict_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.19713616590588001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19885165902169083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1994270659979207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19961924327557759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19971540072561084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19981160360340386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19985972197266108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19993192057095274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1999680293014614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19998608601676174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999511496091063</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19999962957961531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-02F4-4705-B2B2-E682965CBDCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_explicit_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$P$6:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$T$6:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20037613716077032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20019686264744962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20014866655262564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20007639300410038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20004026553593751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20002220413622251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20001317402096469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20000865910954596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-02F4-4705-B2B2-E682965CBDCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1245095471"/>
+        <c:axId val="1245096303"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Log_graph!$Q$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Black_Implied_vol</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Log_graph!$P$2:$P$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Log_graph!$Q$2:$Q$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000000000000000</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.20000000000000012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-02F4-4705-B2B2-E682965CBDCE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1245095471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245096303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1245096303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245095471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_Crank_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$W$2:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3174881135363101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9914645471079817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6846117276679271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3777589082278725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0709060887878188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7640532693477624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.819778284410283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$Y$2:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1.6093112189426357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6093340147879296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6093963889284095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6094079450989862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6094119901309156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6094148795576588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6094158908802962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6094168660957198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6094171099013168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6094171708528413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6094171860905717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.6094171899000114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.6094171911485029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A95-4756-8F64-F52A2C003B3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_implict_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$W$2:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3174881135363101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9914645471079817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6846117276679271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3777589082278725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0709060887878188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7640532693477624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.819778284410283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$Z$2:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1.6238605915193411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6151961642820698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6123066934646524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6113435105555609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6108619222268936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6103803383609225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6101395486599333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6097783675275956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6095977787047246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.6095074847703905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6094623379278472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.609439764537739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.6094200805524264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A95-4756-8F64-F52A2C003B3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Log_graph!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black-FD_explicit_Implied_vol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Log_graph!$W$6:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0106352940962555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9914645471079817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6846117276679271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3777589082278725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0709060887878188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7640532693477624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.819778284410283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Log_graph!$AA$6:$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.6075589929056027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6084540833154699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6086948558059389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6090560203436663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6092366050181104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6093268979153275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.609372044498617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6093946178235958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6094143017813511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A95-4756-8F64-F52A2C003B3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399223967"/>
+        <c:axId val="399218975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399223967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399218975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="399218975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399223967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3327,6 +4761,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5946,6 +7460,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6105,16 +8651,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6134,6 +8680,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570141</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>113619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C492123-390C-594B-50AC-37BCC82F5C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA7D7CC-BF98-A5DC-3FC2-BCCD3586C1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6443,15 +9061,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84B484A-BDBC-4AAE-9DD5-6DF9BEDBCDBE}">
-  <dimension ref="A1:AL104"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6538,8 +9156,15 @@
       <c r="AL1" s="2">
         <v>6400</v>
       </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6667,14 +9292,28 @@
       <c r="AL2">
         <v>7.9419974041638738E-2</v>
       </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="str" cm="1">
+        <f t="array" ref="AN2:AO104">_xll.xBlackFd(AM2:AM5,AM8:AM13,AM16:AM22)</f>
+        <v>res 0</v>
+      </c>
+      <c r="AO2">
+        <v>7.9419973886842604E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.04</v>
       </c>
+      <c r="C3">
+        <f>EXP(-B3*B8)</f>
+        <v>0.81873075307798182</v>
+      </c>
       <c r="D3" t="str">
         <v/>
       </c>
@@ -6780,8 +9419,17 @@
       <c r="AL3" t="str">
         <v/>
       </c>
+      <c r="AM3">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6893,8 +9541,17 @@
       <c r="AL4" t="str">
         <v>res</v>
       </c>
+      <c r="AM4">
+        <v>-0.03</v>
+      </c>
+      <c r="AN4" t="str">
+        <v>s</v>
+      </c>
+      <c r="AO4" t="str">
+        <v>res</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7006,8 +9663,17 @@
       <c r="AL5">
         <v>-2.5971496884532802E-10</v>
       </c>
+      <c r="AM5">
+        <v>0.2</v>
+      </c>
+      <c r="AN5">
+        <v>0.10687792566038574</v>
+      </c>
+      <c r="AO5">
+        <v>-2.5971408494301126E-10</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0.1117661409430161</v>
       </c>
@@ -7080,8 +9746,14 @@
       <c r="AL6">
         <v>8.5397172069977982E-10</v>
       </c>
+      <c r="AN6">
+        <v>0.1117661409430161</v>
+      </c>
+      <c r="AO6">
+        <v>8.5397038348584285E-10</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7157,8 +9829,14 @@
       <c r="AL7">
         <v>2.3119360601282204E-9</v>
       </c>
+      <c r="AN7">
+        <v>0.11687792576539653</v>
+      </c>
+      <c r="AO7">
+        <v>2.3119321198264118E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7270,8 +9948,17 @@
       <c r="AL8">
         <v>4.522774024351242E-9</v>
       </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>0.12222350540121378</v>
+      </c>
+      <c r="AO8">
+        <v>4.5227667521626177E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7383,8 +10070,17 @@
       <c r="AL9">
         <v>8.1090296362089193E-9</v>
       </c>
+      <c r="AM9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.12781357279171804</v>
+      </c>
+      <c r="AO9">
+        <v>8.1090178697853032E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7496,8 +10192,17 @@
       <c r="AL10">
         <v>1.4059834588103801E-8</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0.13365930993517047</v>
+      </c>
+      <c r="AO10">
+        <v>1.4059816618085614E-8</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7609,8 +10314,17 @@
       <c r="AL11">
         <v>2.3966671543702501E-8</v>
       </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0.13977241025456683</v>
+      </c>
+      <c r="AO11">
+        <v>2.3966644974285133E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7722,8 +10436,17 @@
       <c r="AL12">
         <v>4.0388925418013437E-8</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.1461651019883819</v>
+      </c>
+      <c r="AO12">
+        <v>4.0388887006984831E-8</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7835,8 +10558,17 @@
       <c r="AL13">
         <v>6.7418275296769342E-8</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0.15285017265112263</v>
+      </c>
+      <c r="AO13">
+        <v>6.7418220787733725E-8</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>0.15984099461261997</v>
       </c>
@@ -7909,8 +10641,14 @@
       <c r="AL14">
         <v>1.1154325207651242E-7</v>
       </c>
+      <c r="AN14">
+        <v>0.15984099461261997</v>
+      </c>
+      <c r="AO14">
+        <v>1.1154317604661066E-7</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -7986,8 +10724,14 @@
       <c r="AL15">
         <v>1.8296106216360079E-7</v>
       </c>
+      <c r="AN15">
+        <v>0.16715155184722622</v>
+      </c>
+      <c r="AO15">
+        <v>1.829609579245566E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -8099,8 +10843,17 @@
       <c r="AL16">
         <v>2.9754770036101167E-7</v>
       </c>
+      <c r="AM16">
+        <v>0.5</v>
+      </c>
+      <c r="AN16">
+        <v>0.17479646790642547</v>
+      </c>
+      <c r="AO16">
+        <v>2.9754755997006125E-7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -8212,8 +10965,17 @@
       <c r="AL17">
         <v>4.7978525660495795E-7</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0.18279103517081138</v>
+      </c>
+      <c r="AO17">
+        <v>4.7978507106481835E-7</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -8325,8 +11087,17 @@
       <c r="AL18">
         <v>7.6706422650786811E-7</v>
       </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>0.19115124543994613</v>
+      </c>
+      <c r="AO18">
+        <v>7.6706398626007876E-7</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -8438,8 +11209,18 @@
       <c r="AL19">
         <v>1.2159368727913026E-6</v>
       </c>
+      <c r="AM19" s="1">
+        <f>AO1</f>
+        <v>50000</v>
+      </c>
+      <c r="AN19">
+        <v>0.19989382192129057</v>
+      </c>
+      <c r="AO19">
+        <v>1.2159365686324513E-6</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8551,8 +11332,17 @@
       <c r="AL20">
         <v>1.9111046380037705E-6</v>
       </c>
+      <c r="AM20">
+        <v>98</v>
+      </c>
+      <c r="AN20">
+        <v>0.20903625268219381</v>
+      </c>
+      <c r="AO20">
+        <v>1.9111042625747968E-6</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8664,8 +11454,17 @@
       <c r="AL21">
         <v>2.9781883463342828E-6</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0.21859682563185773</v>
+      </c>
+      <c r="AO21">
+        <v>2.9781878963429605E-6</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8777,8 +11576,17 @@
       <c r="AL22">
         <v>4.6016645088118353E-6</v>
       </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0.22859466510325177</v>
+      </c>
+      <c r="AO22">
+        <v>4.6016639881392935E-6</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.23904977010815412</v>
       </c>
@@ -8851,8 +11659,14 @@
       <c r="AL23">
         <v>7.0497634252994325E-6</v>
       </c>
+      <c r="AN23">
+        <v>0.23904977010815412</v>
+      </c>
+      <c r="AO23">
+        <v>7.0497628491026528E-6</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8932,8 +11746,14 @@
       <c r="AL24">
         <v>1.0708621304287542E-5</v>
       </c>
+      <c r="AN24">
+        <v>0.24998305434184187</v>
+      </c>
+      <c r="AO24">
+        <v>1.0708620704130802E-5</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.26141638801745343</v>
       </c>
@@ -9006,8 +11826,14 @@
       <c r="AL25">
         <v>1.6128561014421231E-5</v>
       </c>
+      <c r="AN25">
+        <v>0.26141638801745343</v>
+      </c>
+      <c r="AO25">
+        <v>1.612856044433918E-5</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>0.27337264161370539</v>
       </c>
@@ -9080,8 +11906,14 @@
       <c r="AL26">
         <v>2.4086038945174288E-5</v>
       </c>
+      <c r="AN26">
+        <v>0.27337264161370539</v>
+      </c>
+      <c r="AO26">
+        <v>2.4086038488381667E-5</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.28587573162347385</v>
       </c>
@@ -9154,8 +11986,14 @@
       <c r="AL27">
         <v>3.5665523415744495E-5</v>
       </c>
+      <c r="AN27">
+        <v>0.28587573162347385</v>
+      </c>
+      <c r="AO27">
+        <v>3.5665523191459698E-5</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>0.29895066839475276</v>
       </c>
@@ -9228,8 +12066,14 @@
       <c r="AL28">
         <v>5.2366334718734229E-5</v>
       </c>
+      <c r="AN28">
+        <v>0.29895066839475276</v>
+      </c>
+      <c r="AO28">
+        <v>5.2366334888286555E-5</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.31262360615968754</v>
       </c>
@@ -9302,8 +12146,14 @@
       <c r="AL29">
         <v>7.6240233812344542E-5</v>
       </c>
+      <c r="AN29">
+        <v>0.31262360615968754</v>
+      </c>
+      <c r="AO29">
+        <v>7.6240234583401425E-5</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>0.32692189535175792</v>
       </c>
@@ -9376,8 +12226,14 @@
       <c r="AL30">
         <v>1.1006623306902746E-4</v>
       </c>
+      <c r="AN30">
+        <v>0.32692189535175792</v>
+      </c>
+      <c r="AO30">
+        <v>1.1006623469646053E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.34187413731576205</v>
       </c>
@@ -9450,8 +12306,14 @@
       <c r="AL31">
         <v>1.5756963581177436E-4</v>
       </c>
+      <c r="AN31">
+        <v>0.34187413731576205</v>
+      </c>
+      <c r="AO31">
+        <v>1.5756963859341476E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>0.35751024152004102</v>
       </c>
@@ -9524,8 +12386,14 @@
       <c r="AL32">
         <v>2.2369258977411751E-4</v>
       </c>
+      <c r="AN32">
+        <v>0.35751024152004102</v>
+      </c>
+      <c r="AO32">
+        <v>2.2369259403950725E-4</v>
+      </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.37386148538538549</v>
       </c>
@@ -9598,8 +12466,14 @@
       <c r="AL33">
         <v>3.1492334477187803E-4</v>
       </c>
+      <c r="AN33">
+        <v>0.37386148538538549</v>
+      </c>
+      <c r="AO33">
+        <v>3.1492335086220327E-4</v>
+      </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>0.39096057685030422</v>
       </c>
@@ -9672,8 +12546,14 @@
       <c r="AL34">
         <v>4.3969080779084329E-4</v>
       </c>
+      <c r="AN34">
+        <v>0.39096057685030422</v>
+      </c>
+      <c r="AO34">
+        <v>4.3969081602856272E-4</v>
+      </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>0.40884171979780415</v>
       </c>
@@ -9746,8 +12626,14 @@
       <c r="AL35">
         <v>6.088297590323891E-4</v>
       </c>
+      <c r="AN35">
+        <v>0.40884171979780415</v>
+      </c>
+      <c r="AO35">
+        <v>6.0882976967978212E-4</v>
+      </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>0.42754068247455868</v>
       </c>
@@ -9820,8 +12706,14 @@
       <c r="AL36">
         <v>8.3612011137608781E-4</v>
       </c>
+      <c r="AN36">
+        <v>0.42754068247455868</v>
+      </c>
+      <c r="AO36">
+        <v>8.3612012458303376E-4</v>
+      </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>0.44709486903932433</v>
       </c>
@@ -9894,8 +12786,14 @@
       <c r="AL37">
         <v>1.1389007719737048E-3</v>
       </c>
+      <c r="AN37">
+        <v>0.44709486903932433</v>
+      </c>
+      <c r="AO37">
+        <v>1.1389007877164459E-3</v>
+      </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>0.46754339438372744</v>
       </c>
@@ -9968,8 +12866,14 @@
       <c r="AL38">
         <v>1.538754953094865E-3</v>
       </c>
+      <c r="AN38">
+        <v>0.46754339438372744</v>
+      </c>
+      <c r="AO38">
+        <v>1.53875497110929E-3</v>
+      </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>0.48892716237508643</v>
       </c>
@@ -10042,8 +12946,14 @@
       <c r="AL39">
         <v>2.0622592000454202E-3</v>
       </c>
+      <c r="AN39">
+        <v>0.48892716237508643</v>
+      </c>
+      <c r="AO39">
+        <v>2.0622592197603331E-3</v>
+      </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>0.51128894767778177</v>
       </c>
@@ -10116,8 +13026,14 @@
       <c r="AL40">
         <v>2.7417830604211857E-3</v>
       </c>
+      <c r="AN40">
+        <v>0.51128894767778177</v>
+      </c>
+      <c r="AO40">
+        <v>2.7417830808989028E-3</v>
+      </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>0.53467348131684422</v>
       </c>
@@ -10190,8 +13106,14 @@
       <c r="AL41">
         <v>3.6163204119124283E-3</v>
       </c>
+      <c r="AN41">
+        <v>0.53467348131684422</v>
+      </c>
+      <c r="AO41">
+        <v>3.6163204318056452E-3</v>
+      </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>0.55912754015491628</v>
       </c>
@@ -10264,8 +13186,14 @@
       <c r="AL42">
         <v>4.7323273006034056E-3</v>
       </c>
+      <c r="AN42">
+        <v>0.55912754015491628</v>
+      </c>
+      <c r="AO42">
+        <v>4.7323273181379549E-3</v>
+      </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>0.58470004046157042</v>
       </c>
@@ -10338,8 +13266,14 @@
       <c r="AL43">
         <v>6.1445351254732902E-3</v>
       </c>
+      <c r="AN43">
+        <v>0.58470004046157042</v>
+      </c>
+      <c r="AO43">
+        <v>6.144535138466631E-3</v>
+      </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>0.61144213576215489</v>
       </c>
@@ -10412,8 +13346,14 @@
       <c r="AL44">
         <v>7.9167026323632723E-3</v>
       </c>
+      <c r="AN44">
+        <v>0.61144213576215489</v>
+      </c>
+      <c r="AO44">
+        <v>7.9167026382869505E-3</v>
+      </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>0.63940731916189708</v>
       </c>
@@ -10486,8 +13426,14 @@
       <c r="AL45">
         <v>1.0122266006511584E-2</v>
       </c>
+      <c r="AN45">
+        <v>0.63940731916189708</v>
+      </c>
+      <c r="AO45">
+        <v>1.0122266002603355E-2</v>
+      </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>0.66865153034994573</v>
       </c>
@@ -10560,8 +13506,14 @@
       <c r="AL46">
         <v>1.284484395011138E-2</v>
       </c>
+      <c r="AN46">
+        <v>0.66865153034994573</v>
+      </c>
+      <c r="AO46">
+        <v>1.2844843933538059E-2</v>
+      </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>0.699233267497397</v>
       </c>
@@ -10634,8 +13586,14 @@
       <c r="AL47">
         <v>1.61785545399738E-2</v>
       </c>
+      <c r="AN47">
+        <v>0.699233267497397</v>
+      </c>
+      <c r="AO47">
+        <v>1.6178554508041489E-2</v>
+      </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>0.73121370427313814</v>
       </c>
@@ -10708,8 +13666,14 @@
       <c r="AL48">
         <v>2.0228103326863492E-2</v>
       </c>
+      <c r="AN48">
+        <v>0.73121370427313814</v>
+      </c>
+      <c r="AO48">
+        <v>2.0228103277264722E-2</v>
+      </c>
     </row>
-    <row r="49" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>0.76465681221157666</v>
       </c>
@@ -10782,8 +13746,14 @@
       <c r="AL49">
         <v>2.510860785428979E-2</v>
       </c>
+      <c r="AN49">
+        <v>0.76465681221157666</v>
+      </c>
+      <c r="AO49">
+        <v>2.5108607785371596E-2</v>
+      </c>
     </row>
-    <row r="50" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>0.79962948867703543</v>
       </c>
@@ -10856,8 +13826,14 @@
       <c r="AL50">
         <v>3.0945132621299255E-2</v>
       </c>
+      <c r="AN50">
+        <v>0.79962948867703543</v>
+      </c>
+      <c r="AO50">
+        <v>3.0945132532330642E-2</v>
+      </c>
     </row>
-    <row r="51" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>0.83620169068078132</v>
       </c>
@@ -10930,8 +13906,14 @@
       <c r="AL51">
         <v>3.7871920317316364E-2</v>
       </c>
+      <c r="AN51">
+        <v>0.83620169068078132</v>
+      </c>
+      <c r="AO51">
+        <v>3.7871920208728822E-2</v>
+      </c>
     </row>
-    <row r="52" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>0.87444657481836852</v>
       </c>
@@ -11004,8 +13986,14 @@
       <c r="AL52">
         <v>4.6031319465519756E-2</v>
       </c>
+      <c r="AN52">
+        <v>0.87444657481836852</v>
+      </c>
+      <c r="AO52">
+        <v>4.6031319339093747E-2</v>
+      </c>
     </row>
-    <row r="53" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>0.914440643607217</v>
       </c>
@@ -11078,8 +14066,14 @@
       <c r="AL53">
         <v>5.5572424697602124E-2</v>
       </c>
+      <c r="AN53">
+        <v>0.914440643607217</v>
+      </c>
+      <c r="AO53">
+        <v>5.5572424556573928E-2</v>
+      </c>
     </row>
-    <row r="54" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>0.95626389851714944</v>
       </c>
@@ -11152,8 +14146,14 @@
       <c r="AL54">
         <v>6.664946277721194E-2</v>
       </c>
+      <c r="AN54">
+        <v>0.95626389851714944</v>
+      </c>
+      <c r="AO54">
+        <v>6.6649462626277592E-2</v>
+      </c>
     </row>
-    <row r="55" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>1</v>
       </c>
@@ -11226,8 +14226,14 @@
       <c r="AL55">
         <v>7.9419974041638738E-2</v>
       </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>7.9419973886842604E-2</v>
+      </c>
     </row>
-    <row r="56" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>1.0457364348384068</v>
       </c>
@@ -11300,8 +14306,14 @@
       <c r="AL56">
         <v>9.4042853899337697E-2</v>
       </c>
+      <c r="AN56">
+        <v>1.0457364348384068</v>
+      </c>
+      <c r="AO56">
+        <v>9.4042853747839203E-2</v>
+      </c>
     </row>
-    <row r="57" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>1.0935646911485417</v>
       </c>
@@ -11374,8 +14386,14 @@
       <c r="AL57">
         <v>0.11067633117864997</v>
       </c>
+      <c r="AN57">
+        <v>1.0935646911485417</v>
+      </c>
+      <c r="AO57">
+        <v>0.11067633103838009</v>
+      </c>
     </row>
-    <row r="58" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>1.1435804413868396</v>
       </c>
@@ -11448,8 +14466,14 @@
       <c r="AL58">
         <v>0.12947596837688324</v>
       </c>
+      <c r="AN58">
+        <v>1.1435804413868396</v>
+      </c>
+      <c r="AO58">
+        <v>0.1294759682561038</v>
+      </c>
     </row>
-    <row r="59" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>1.1958837337268053</v>
       </c>
@@ -11522,8 +14546,14 @@
       <c r="AL59">
         <v>0.15059277235977586</v>
       </c>
+      <c r="AN59">
+        <v>1.1958837337268053</v>
+      </c>
+      <c r="AO59">
+        <v>0.15059277226658119</v>
+      </c>
     </row>
-    <row r="60" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>1.2505791921887124</v>
       </c>
@@ -11596,8 +14626,14 @@
       <c r="AL60">
         <v>0.17417150230019462</v>
       </c>
+      <c r="AN60">
+        <v>1.2505791921887124</v>
+      </c>
+      <c r="AO60">
+        <v>0.17417150224198508</v>
+      </c>
     </row>
-    <row r="61" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>1.307776225922519</v>
       </c>
@@ -11670,8 +14706,14 @@
       <c r="AL61">
         <v>0.20034925451859734</v>
       </c>
+      <c r="AN61">
+        <v>1.307776225922519</v>
+      </c>
+      <c r="AO61">
+        <v>0.20034925450157917</v>
+      </c>
     </row>
-    <row r="62" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>1.3675892480626419</v>
       </c>
@@ -11744,8 +14786,14 @@
       <c r="AL62">
         <v>0.22925439172719117</v>
       </c>
+      <c r="AN62">
+        <v>1.3675892480626419</v>
+      </c>
+      <c r="AO62">
+        <v>0.2292543917559387</v>
+      </c>
     </row>
-    <row r="63" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>1.430137904592365</v>
       </c>
@@ -11818,8 +14866,14 @@
       <c r="AL63">
         <v>0.26100586773411416</v>
       </c>
+      <c r="AN63">
+        <v>1.430137904592365</v>
+      </c>
+      <c r="AO63">
+        <v>0.26100586781123591</v>
+      </c>
     </row>
-    <row r="64" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>1.4955473136756894</v>
       </c>
@@ -11892,8 +14946,14 @@
       <c r="AL64">
         <v>0.29571297904315846</v>
       </c>
+      <c r="AN64">
+        <v>1.4955473136756894</v>
+      </c>
+      <c r="AO64">
+        <v>0.29571297916910527</v>
+      </c>
     </row>
-    <row r="65" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>1.5639483159353722</v>
       </c>
@@ -11966,8 +15026,14 @@
       <c r="AL65">
         <v>0.33347555336292145</v>
       </c>
+      <c r="AN65">
+        <v>1.5639483159353722</v>
+      </c>
+      <c r="AO65">
+        <v>0.33347555353594138</v>
+      </c>
     </row>
-    <row r="66" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>1.6354777361777866</v>
       </c>
@@ -12040,8 +15106,14 @@
       <c r="AL66">
         <v>0.37438456333246967</v>
       </c>
+      <c r="AN66">
+        <v>1.6354777361777866</v>
+      </c>
+      <c r="AO66">
+        <v>0.37438456354872907</v>
+      </c>
     </row>
-    <row r="67" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>1.7102786570881472</v>
       </c>
@@ -12114,8 +15186,14 @@
       <c r="AL67">
         <v>0.41852313329868085</v>
       </c>
+      <c r="AN67">
+        <v>1.7102786570881472</v>
+      </c>
+      <c r="AO67">
+        <v>0.41852313355253179</v>
+      </c>
     </row>
-    <row r="68" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>1.7885007054435775</v>
       </c>
@@ -12188,8 +15266,14 @@
       <c r="AL68">
         <v>0.46596788913157783</v>
       </c>
+      <c r="AN68">
+        <v>1.7885007054435775</v>
+      </c>
+      <c r="AO68">
+        <v>0.46596788941595052</v>
+      </c>
     </row>
-    <row r="69" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>1.8703003514165424</v>
       </c>
@@ -12262,8 +15346,14 @@
       <c r="AL69">
         <v>0.51679058697447744</v>
       </c>
+      <c r="AN69">
+        <v>1.8703003514165424</v>
+      </c>
+      <c r="AO69">
+        <v>0.51679058728136118</v>
+      </c>
     </row>
-    <row r="70" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>1.9558412215673548</v>
       </c>
@@ -12336,8 +15426,14 @@
       <c r="AL70">
         <v>0.57105994728897946</v>
       </c>
+      <c r="AN70">
+        <v>1.9558412215673548</v>
+      </c>
+      <c r="AO70">
+        <v>0.57105994760994772</v>
+      </c>
     </row>
-    <row r="71" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>2.0452944261518402</v>
       </c>
@@ -12410,8 +15506,14 @@
       <c r="AL71">
         <v>0.62884361596664251</v>
       </c>
+      <c r="AN71">
+        <v>2.0452944261518402</v>
+      </c>
+      <c r="AO71">
+        <v>0.62884361629338825</v>
+      </c>
     </row>
-    <row r="72" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>2.1388389013988909</v>
       </c>
@@ -12484,8 +15586,14 @@
       <c r="AL72">
         <v>0.69021017462614553</v>
       </c>
+      <c r="AN72">
+        <v>2.1388389013988909</v>
+      </c>
+      <c r="AO72">
+        <v>0.69021017495096448</v>
+      </c>
     </row>
-    <row r="73" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>2.2366617674425711</v>
       </c>
@@ -12558,8 +15666,14 @@
       <c r="AL73">
         <v>0.75523112710179341</v>
       </c>
+      <c r="AN73">
+        <v>2.2366617674425711</v>
+      </c>
+      <c r="AO73">
+        <v>0.75523112741800691</v>
+      </c>
     </row>
-    <row r="74" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>2.3389587026247645</v>
       </c>
@@ -12632,8 +15746,14 @@
       <c r="AL74">
         <v>0.82398279784266037</v>
       </c>
+      <c r="AN74">
+        <v>2.3389587026247645</v>
+      </c>
+      <c r="AO74">
+        <v>0.82398279814492337</v>
+      </c>
     </row>
-    <row r="75" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>2.4459343349170868</v>
       </c>
@@ -12706,8 +15826,14 @@
       <c r="AL75">
         <v>0.89654808953802423</v>
       </c>
+      <c r="AN75">
+        <v>2.4459343349170868</v>
+      </c>
+      <c r="AO75">
+        <v>0.8965480898225181</v>
+      </c>
     </row>
-    <row r="76" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>2.5578026512450442</v>
       </c>
@@ -12780,8 +15906,14 @@
       <c r="AL76">
         <v>0.97301806069283969</v>
       </c>
+      <c r="AN76">
+        <v>2.5578026512450442</v>
+      </c>
+      <c r="AO76">
+        <v>0.97301806095734877</v>
+      </c>
     </row>
-    <row r="77" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>2.6747874255332178</v>
       </c>
@@ -12854,8 +15986,14 @@
       <c r="AL77">
         <v>1.0534932980032572</v>
       </c>
+      <c r="AN77">
+        <v>2.6747874255332178</v>
+      </c>
+      <c r="AO77">
+        <v>1.0534932982471168</v>
+      </c>
     </row>
-    <row r="78" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>2.797122666327708</v>
       </c>
@@ -12928,8 +16066,14 @@
       <c r="AL78">
         <v>1.138085072205703</v>
       </c>
+      <c r="AN78">
+        <v>2.797122666327708</v>
+      </c>
+      <c r="AO78">
+        <v>1.1380850724296849</v>
+      </c>
     </row>
-    <row r="79" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>2.9250530848912364</v>
       </c>
@@ -13002,8 +16146,14 @@
       <c r="AL79">
         <v>1.2269162787237018</v>
       </c>
+      <c r="AN79">
+        <v>2.9250530848912364</v>
+      </c>
+      <c r="AO79">
+        <v>1.2269162789297696</v>
+      </c>
     </row>
-    <row r="80" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>3.0588345847072458</v>
       </c>
@@ -13076,8 +16226,14 @@
       <c r="AL80">
         <v>1.3201221752481598</v>
       </c>
+      <c r="AN80">
+        <v>3.0588345847072458</v>
+      </c>
+      <c r="AO80">
+        <v>1.3201221754392463</v>
+      </c>
     </row>
-    <row r="81" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>3.1987347733721743</v>
       </c>
@@ -13150,8 +16306,14 @@
       <c r="AL81">
         <v>1.4178509369255994</v>
       </c>
+      <c r="AN81">
+        <v>3.1987347733721743</v>
+      </c>
+      <c r="AO81">
+        <v>1.4178509371052876</v>
+      </c>
     </row>
-    <row r="82" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>3.3450334978998568</v>
       </c>
@@ -13224,8 +16386,14 @@
       <c r="AL82">
         <v>1.52026405589442</v>
       </c>
+      <c r="AN82">
+        <v>3.3450334978998568</v>
+      </c>
+      <c r="AO82">
+        <v>1.5202640560666791</v>
+      </c>
     </row>
-    <row r="83" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>3.4980234045088423</v>
       </c>
@@ -13298,8 +16466,14 @@
       <c r="AL83">
         <v>1.6275366155163951</v>
       </c>
+      <c r="AN83">
+        <v>3.4980234045088423</v>
+      </c>
+      <c r="AO83">
+        <v>1.6275366156853286</v>
+      </c>
     </row>
-    <row r="84" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>3.6580105240123832</v>
       </c>
@@ -13372,8 +16546,14 @@
       <c r="AL84">
         <v>1.7398574709912724</v>
       </c>
+      <c r="AN84">
+        <v>3.6580105240123832</v>
+      </c>
+      <c r="AO84">
+        <v>1.7398574711608794</v>
+      </c>
     </row>
-    <row r="85" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>3.8253148839820823</v>
       </c>
@@ -13446,8 +16626,14 @@
       <c r="AL85">
         <v>1.8574293674412745</v>
       </c>
+      <c r="AN85">
+        <v>3.8253148839820823</v>
+      </c>
+      <c r="AO85">
+        <v>1.8574293676152831</v>
+      </c>
     </row>
-    <row r="86" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>4.0002711489097171</v>
       </c>
@@ -13520,8 +16706,14 @@
       <c r="AL86">
         <v>1.9804690244145888</v>
       </c>
+      <c r="AN86">
+        <v>4.0002711489097171</v>
+      </c>
+      <c r="AO86">
+        <v>1.9804690245963485</v>
+      </c>
     </row>
-    <row r="87" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>4.1832292896477856</v>
       </c>
@@ -13594,8 +16786,14 @@
       <c r="AL87">
         <v>2.1092072125218473</v>
       </c>
+      <c r="AN87">
+        <v>4.1832292896477856</v>
+      </c>
+      <c r="AO87">
+        <v>2.1092072127142494</v>
+      </c>
     </row>
-    <row r="88" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>4.3745552834678767</v>
       </c>
@@ -13668,8 +16866,14 @@
       <c r="AL88">
         <v>2.2438888440174964</v>
       </c>
+      <c r="AN88">
+        <v>4.3745552834678767</v>
+      </c>
+      <c r="AO88">
+        <v>2.2438888442229552</v>
+      </c>
     </row>
-    <row r="89" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>4.5746318461372146</v>
       </c>
@@ -13742,8 +16946,14 @@
       <c r="AL89">
         <v>2.3847730949575081</v>
       </c>
+      <c r="AN89">
+        <v>4.5746318461372146</v>
+      </c>
+      <c r="AO89">
+        <v>2.3847730951779416</v>
+      </c>
     </row>
-    <row r="90" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>4.7838591974777698</v>
       </c>
@@ -13816,8 +17026,14 @@
       <c r="AL90">
         <v>2.5321335724307148</v>
       </c>
+      <c r="AN90">
+        <v>4.7838591974777698</v>
+      </c>
+      <c r="AO90">
+        <v>2.5321335726676293</v>
+      </c>
     </row>
-    <row r="91" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>5.002655861939326</v>
       </c>
@@ -13890,8 +17106,14 @@
       <c r="AL91">
         <v>2.6862585365235878</v>
       </c>
+      <c r="AN91">
+        <v>5.002655861939326</v>
+      </c>
+      <c r="AO91">
+        <v>2.6862585367780962</v>
+      </c>
     </row>
-    <row r="92" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>5.2314595057878881</v>
       </c>
@@ -13964,8 +17186,14 @@
       <c r="AL92">
         <v>2.8474511833071321</v>
       </c>
+      <c r="AN92">
+        <v>5.2314595057878881</v>
+      </c>
+      <c r="AO92">
+        <v>2.8474511835800218</v>
+      </c>
     </row>
-    <row r="93" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>5.470727812584121</v>
       </c>
@@ -14038,8 +17266,14 @@
       <c r="AL93">
         <v>3.0160299923286007</v>
       </c>
+      <c r="AN93">
+        <v>5.470727812584121</v>
+      </c>
+      <c r="AO93">
+        <v>3.0160299926204606</v>
+      </c>
     </row>
-    <row r="94" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>5.7209393987030346</v>
       </c>
@@ -14112,8 +17346,14 @@
       <c r="AL94">
         <v>3.1923291398839462</v>
       </c>
+      <c r="AN94">
+        <v>5.7209393987030346</v>
+      </c>
+      <c r="AO94">
+        <v>3.1923291401951488</v>
+      </c>
     </row>
-    <row r="95" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>5.9825947707262914</v>
       </c>
@@ -14186,8 +17426,14 @@
       <c r="AL95">
         <v>3.3766989777221692</v>
       </c>
+      <c r="AN95">
+        <v>5.9825947707262914</v>
+      </c>
+      <c r="AO95">
+        <v>3.3766989780530157</v>
+      </c>
     </row>
-    <row r="96" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>6.2562173266222079</v>
       </c>
@@ -14260,8 +17506,14 @@
       <c r="AL96">
         <v>3.5695065757382229</v>
       </c>
+      <c r="AN96">
+        <v>6.2562173266222079</v>
+      </c>
+      <c r="AO96">
+        <v>3.5695065760889482</v>
+      </c>
     </row>
-    <row r="97" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>6.5423544027161773</v>
       </c>
@@ -14334,8 +17586,14 @@
       <c r="AL97">
         <v>3.7711363265690325</v>
       </c>
+      <c r="AN97">
+        <v>6.5423544027161773</v>
+      </c>
+      <c r="AO97">
+        <v>3.771136326939851</v>
+      </c>
     </row>
-    <row r="98" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>6.8415783685457701</v>
       </c>
@@ -14408,8 +17666,14 @@
       <c r="AL98">
         <v>3.9819906097291895</v>
       </c>
+      <c r="AN98">
+        <v>6.8415783685457701</v>
+      </c>
+      <c r="AO98">
+        <v>3.9819906101203442</v>
+      </c>
     </row>
-    <row r="99" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>7.1544877717906186</v>
       </c>
@@ -14482,8 +17746,14 @@
       <c r="AL99">
         <v>4.2024905129155545</v>
       </c>
+      <c r="AN99">
+        <v>7.1544877717906186</v>
+      </c>
+      <c r="AO99">
+        <v>4.2024905133273434</v>
+      </c>
     </row>
-    <row r="100" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>7.4817085355672992</v>
       </c>
@@ -14556,8 +17826,14 @@
       <c r="AL100">
         <v>4.4330766082824065</v>
       </c>
+      <c r="AN100">
+        <v>7.4817085355672992</v>
+      </c>
+      <c r="AO100">
+        <v>4.4330766087151794</v>
+      </c>
     </row>
-    <row r="101" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>7.8238952104842276</v>
       </c>
@@ -14630,8 +17906,14 @@
       <c r="AL101">
         <v>4.6742097817537278</v>
       </c>
+      <c r="AN101">
+        <v>7.8238952104842276</v>
+      </c>
+      <c r="AO101">
+        <v>4.6742097822079103</v>
+      </c>
     </row>
-    <row r="102" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>8.1817322839610611</v>
       </c>
@@ -14704,8 +17986,14 @@
       <c r="AL102">
         <v>4.9263721137127341</v>
       </c>
+      <c r="AN102">
+        <v>8.1817322839610611</v>
+      </c>
+      <c r="AO102">
+        <v>4.9263721141888341</v>
+      </c>
     </row>
-    <row r="103" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>8.5559355494317391</v>
       </c>
@@ -14778,8 +18066,14 @@
       <c r="AL103">
         <v>5.1900678096080082</v>
       </c>
+      <c r="AN103">
+        <v>8.5559355494317391</v>
+      </c>
+      <c r="AO103">
+        <v>5.1900678101065907</v>
+      </c>
     </row>
-    <row r="104" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>8.9472535381699316</v>
       </c>
@@ -14851,6 +18145,12 @@
       </c>
       <c r="AL104">
         <v>5.4658241790472122</v>
+      </c>
+      <c r="AN104">
+        <v>8.9472535381699316</v>
+      </c>
+      <c r="AO104">
+        <v>5.4658241795689886</v>
       </c>
     </row>
   </sheetData>
@@ -14860,15 +18160,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8884634-90AE-459B-AAE7-524CCDE8661A}">
-  <dimension ref="A1:AL104"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14955,8 +18255,15 @@
       <c r="AL1" s="2">
         <v>6400</v>
       </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15084,8 +18391,18 @@
       <c r="AL2">
         <v>7.9417175124798817E-2</v>
       </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="str" cm="1">
+        <f t="array" ref="AN2:AO104">_xll.xBlackFd(AM2:AM5,AM8:AM13,AM16:AM22)</f>
+        <v>res 0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>7.9419615640161062E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15197,8 +18514,17 @@
       <c r="AL3" t="str">
         <v/>
       </c>
+      <c r="AM3">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15310,8 +18636,17 @@
       <c r="AL4" t="str">
         <v>res</v>
       </c>
+      <c r="AM4">
+        <v>-0.03</v>
+      </c>
+      <c r="AN4" t="str">
+        <v>s</v>
+      </c>
+      <c r="AO4" t="str">
+        <v>res</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15423,8 +18758,17 @@
       <c r="AL5">
         <v>-2.6312531169988309E-10</v>
       </c>
+      <c r="AM5">
+        <v>0.2</v>
+      </c>
+      <c r="AN5">
+        <v>0.10687792566038574</v>
+      </c>
+      <c r="AO5">
+        <v>-2.6014909567112056E-10</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0.1117661409430161</v>
       </c>
@@ -15497,8 +18841,14 @@
       <c r="AL6">
         <v>8.6131590872169686E-10</v>
       </c>
+      <c r="AN6">
+        <v>0.1117661409430161</v>
+      </c>
+      <c r="AO6">
+        <v>8.5490907197880751E-10</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -15574,8 +18924,14 @@
       <c r="AL7">
         <v>2.3324423539145125E-9</v>
       </c>
+      <c r="AN7">
+        <v>0.11687792576539653</v>
+      </c>
+      <c r="AO7">
+        <v>2.3145523325370765E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -15687,8 +19043,17 @@
       <c r="AL8">
         <v>4.5613420108779496E-9</v>
       </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>0.12222350540121378</v>
+      </c>
+      <c r="AO8">
+        <v>4.527695045744794E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -15800,8 +19165,17 @@
       <c r="AL9">
         <v>8.1739682080618088E-9</v>
       </c>
+      <c r="AM9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.12781357279171804</v>
+      </c>
+      <c r="AO9">
+        <v>8.1173169269078239E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -15913,8 +19287,17 @@
       <c r="AL10">
         <v>1.4164260049155506E-8</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0.13365930993517047</v>
+      </c>
+      <c r="AO10">
+        <v>1.4073164201903112E-8</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -16026,8 +19409,17 @@
       <c r="AL11">
         <v>2.4130542925643573E-8</v>
       </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0.13977241025456683</v>
+      </c>
+      <c r="AO11">
+        <v>2.3987594474805744E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -16139,8 +19531,17 @@
       <c r="AL12">
         <v>4.0641916018599289E-8</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.1461651019883819</v>
+      </c>
+      <c r="AO12">
+        <v>4.042123507083597E-8</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -16252,8 +19653,17 @@
       <c r="AL13">
         <v>6.7803723455072359E-8</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0.15285017265112263</v>
+      </c>
+      <c r="AO13">
+        <v>6.7467513160965786E-8</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>0.15984099461261997</v>
       </c>
@@ -16326,8 +19736,14 @@
       <c r="AL14">
         <v>1.1212347395010512E-7</v>
       </c>
+      <c r="AN14">
+        <v>0.15984099461261997</v>
+      </c>
+      <c r="AO14">
+        <v>1.1161738785305762E-7</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -16403,8 +19819,14 @@
       <c r="AL15">
         <v>1.838243356936381E-7</v>
       </c>
+      <c r="AN15">
+        <v>0.16715155184722622</v>
+      </c>
+      <c r="AO15">
+        <v>1.8307138798711752E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -16517,8 +19939,18 @@
       <c r="AL16">
         <v>2.9881722926142426E-7</v>
       </c>
+      <c r="AM16">
+        <f>AJ16</f>
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>0.17479646790642547</v>
+      </c>
+      <c r="AO16">
+        <v>2.9770997873659765E-7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16630,8 +20062,17 @@
       <c r="AL17">
         <v>4.8163037747660654E-7</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0.18279103517081138</v>
+      </c>
+      <c r="AO17">
+        <v>4.8002115583915188E-7</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -16743,8 +20184,17 @@
       <c r="AL18">
         <v>7.6971400684779136E-7</v>
       </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>0.19115124543994613</v>
+      </c>
+      <c r="AO18">
+        <v>7.674030626602869E-7</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -16856,8 +20306,18 @@
       <c r="AL19">
         <v>1.2196960332302452E-6</v>
       </c>
+      <c r="AM19" s="1">
+        <f>AO1</f>
+        <v>50000</v>
+      </c>
+      <c r="AN19">
+        <v>0.19989382192129057</v>
+      </c>
+      <c r="AO19">
+        <v>1.2164176497233317E-6</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -16969,8 +20429,17 @@
       <c r="AL20">
         <v>1.9163713851713982E-6</v>
       </c>
+      <c r="AM20">
+        <v>98</v>
+      </c>
+      <c r="AN20">
+        <v>0.20903625268219381</v>
+      </c>
+      <c r="AO20">
+        <v>1.9117783326730967E-6</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -17082,8 +20551,17 @@
       <c r="AL21">
         <v>2.9854731890554774E-6</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0.21859682563185773</v>
+      </c>
+      <c r="AO21">
+        <v>2.9791203206863563E-6</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -17195,8 +20673,17 @@
       <c r="AL22">
         <v>4.6116084197563506E-6</v>
       </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0.22859466510325177</v>
+      </c>
+      <c r="AO22">
+        <v>4.6029368385892999E-6</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.23904977010815412</v>
       </c>
@@ -17269,8 +20756,14 @@
       <c r="AL23">
         <v>7.0631527840908335E-6</v>
       </c>
+      <c r="AN23">
+        <v>0.23904977010815412</v>
+      </c>
+      <c r="AO23">
+        <v>7.0514768174364975E-6</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -17350,8 +20843,14 @@
       <c r="AL24">
         <v>1.0726395918922845E-5</v>
       </c>
+      <c r="AN24">
+        <v>0.24998305434184187</v>
+      </c>
+      <c r="AO24">
+        <v>1.0710896128596479E-5</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.26141638801745343</v>
       </c>
@@ -17424,8 +20923,14 @@
       <c r="AL25">
         <v>1.6151810200919113E-5</v>
       </c>
+      <c r="AN25">
+        <v>0.26141638801745343</v>
+      </c>
+      <c r="AO25">
+        <v>1.6131536806530435E-5</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>0.27337264161370539</v>
       </c>
@@ -17498,8 +21003,14 @@
       <c r="AL26">
         <v>2.4115979231230125E-5</v>
       </c>
+      <c r="AN26">
+        <v>0.27337264161370539</v>
+      </c>
+      <c r="AO26">
+        <v>2.4089871556466215E-5</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.28587573162347385</v>
       </c>
@@ -17572,8 +21083,14 @@
       <c r="AL27">
         <v>3.5703450060478198E-5</v>
       </c>
+      <c r="AN27">
+        <v>0.28587573162347385</v>
+      </c>
+      <c r="AO27">
+        <v>3.5670378810007134E-5</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>0.29895066839475276</v>
       </c>
@@ -17646,8 +21163,14 @@
       <c r="AL28">
         <v>5.2413538110576586E-5</v>
       </c>
+      <c r="AN28">
+        <v>0.29895066839475276</v>
+      </c>
+      <c r="AO28">
+        <v>5.2372378270420994E-5</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.31262360615968754</v>
       </c>
@@ -17720,8 +21243,14 @@
       <c r="AL29">
         <v>7.629787119148094E-5</v>
       </c>
+      <c r="AN29">
+        <v>0.31262360615968754</v>
+      </c>
+      <c r="AO29">
+        <v>7.6247613882425772E-5</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>0.32692189535175792</v>
       </c>
@@ -17794,8 +21323,14 @@
       <c r="AL30">
         <v>1.1013514624992049E-4</v>
       </c>
+      <c r="AN30">
+        <v>0.32692189535175792</v>
+      </c>
+      <c r="AO30">
+        <v>1.1007505766374084E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.34187413731576205</v>
       </c>
@@ -17868,8 +21403,14 @@
       <c r="AL31">
         <v>1.5765010702349991E-4</v>
       </c>
+      <c r="AN31">
+        <v>0.34187413731576205</v>
+      </c>
+      <c r="AO31">
+        <v>1.5757994131432573E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>0.35751024152004102</v>
       </c>
@@ -17942,8 +21483,14 @@
       <c r="AL32">
         <v>2.2378403076055115E-4</v>
       </c>
+      <c r="AN32">
+        <v>0.35751024152004102</v>
+      </c>
+      <c r="AO32">
+        <v>2.2370430112681882E-4</v>
+      </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.37386148538538549</v>
       </c>
@@ -18016,8 +21563,14 @@
       <c r="AL33">
         <v>3.1502391921542822E-4</v>
       </c>
+      <c r="AN33">
+        <v>0.37386148538538549</v>
+      </c>
+      <c r="AO33">
+        <v>3.1493622711670232E-4</v>
+      </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>0.39096057685030422</v>
       </c>
@@ -18090,8 +21643,14 @@
       <c r="AL34">
         <v>4.3979699413477515E-4</v>
       </c>
+      <c r="AN34">
+        <v>0.39096057685030422</v>
+      </c>
+      <c r="AO34">
+        <v>4.397044104745502E-4</v>
+      </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>0.40884171979780415</v>
       </c>
@@ -18164,8 +21723,14 @@
       <c r="AL35">
         <v>6.0893586986855198E-4</v>
       </c>
+      <c r="AN35">
+        <v>0.40884171979780415</v>
+      </c>
+      <c r="AO35">
+        <v>6.0884335404700306E-4</v>
+      </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>0.42754068247455868</v>
       </c>
@@ -18238,8 +21803,14 @@
       <c r="AL36">
         <v>8.3621779644734329E-4</v>
       </c>
+      <c r="AN36">
+        <v>0.42754068247455868</v>
+      </c>
+      <c r="AO36">
+        <v>8.361326296994541E-4</v>
+      </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>0.44709486903932433</v>
       </c>
@@ -18312,8 +21883,14 @@
       <c r="AL37">
         <v>1.1389785438776516E-3</v>
       </c>
+      <c r="AN37">
+        <v>0.44709486903932433</v>
+      </c>
+      <c r="AO37">
+        <v>1.1389107428165929E-3</v>
+      </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>0.46754339438372744</v>
       </c>
@@ -18386,8 +21963,14 @@
       <c r="AL38">
         <v>1.5387977869484063E-3</v>
       </c>
+      <c r="AN38">
+        <v>0.46754339438372744</v>
+      </c>
+      <c r="AO38">
+        <v>1.5387604526200963E-3</v>
+      </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>0.48892716237508643</v>
       </c>
@@ -18460,8 +22043,14 @@
       <c r="AL39">
         <v>2.0622482692844225E-3</v>
       </c>
+      <c r="AN39">
+        <v>0.48892716237508643</v>
+      </c>
+      <c r="AO39">
+        <v>2.0622578175222102E-3</v>
+      </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>0.51128894767778177</v>
       </c>
@@ -18534,8 +22123,14 @@
       <c r="AL40">
         <v>2.7416956788653213E-3</v>
       </c>
+      <c r="AN40">
+        <v>0.51128894767778177</v>
+      </c>
+      <c r="AO40">
+        <v>2.7417718907964328E-3</v>
+      </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>0.53467348131684422</v>
       </c>
@@ -18608,8 +22203,14 @@
       <c r="AL41">
         <v>3.6161302553523855E-3</v>
       </c>
+      <c r="AN41">
+        <v>0.53467348131684422</v>
+      </c>
+      <c r="AO41">
+        <v>3.6162960841806964E-3</v>
+      </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>0.55912754015491628</v>
       </c>
@@ -18682,8 +22283,14 @@
       <c r="AL42">
         <v>4.7320049776320662E-3</v>
       </c>
+      <c r="AN42">
+        <v>0.55912754015491628</v>
+      </c>
+      <c r="AO42">
+        <v>4.732286050904054E-3</v>
+      </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>0.58470004046157042</v>
       </c>
@@ -18756,8 +22363,14 @@
       <c r="AL43">
         <v>6.14404915554961E-3</v>
       </c>
+      <c r="AN43">
+        <v>0.58470004046157042</v>
+      </c>
+      <c r="AO43">
+        <v>6.1444729223399455E-3</v>
+      </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>0.61144213576215489</v>
       </c>
@@ -18830,8 +22443,14 @@
       <c r="AL44">
         <v>7.9160208682256383E-3</v>
       </c>
+      <c r="AN44">
+        <v>0.61144213576215489</v>
+      </c>
+      <c r="AO44">
+        <v>7.9166153588774383E-3</v>
+      </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>0.63940731916189708</v>
       </c>
@@ -18904,8 +22523,14 @@
       <c r="AL45">
         <v>1.0121357507986185E-2</v>
       </c>
+      <c r="AN45">
+        <v>0.63940731916189708</v>
+      </c>
+      <c r="AO45">
+        <v>1.0122149700260987E-2</v>
+      </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>0.66865153034994573</v>
       </c>
@@ -18978,8 +22603,14 @@
       <c r="AL46">
         <v>1.2843681278145421E-2</v>
       </c>
+      <c r="AN46">
+        <v>0.66865153034994573</v>
+      </c>
+      <c r="AO46">
+        <v>1.2844695096959262E-2</v>
+      </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>0.699233267497397</v>
       </c>
@@ -19052,8 +22683,14 @@
       <c r="AL47">
         <v>1.6177116395666699E-2</v>
       </c>
+      <c r="AN47">
+        <v>0.699233267497397</v>
+      </c>
+      <c r="AO47">
+        <v>1.6178370412004331E-2</v>
+      </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>0.73121370427313814</v>
       </c>
@@ -19126,8 +22763,14 @@
       <c r="AL48">
         <v>2.0226377413902968E-2</v>
       </c>
+      <c r="AN48">
+        <v>0.73121370427313814</v>
+      </c>
+      <c r="AO48">
+        <v>2.0227882348931085E-2</v>
+      </c>
     </row>
-    <row r="49" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>0.76465681221157666</v>
       </c>
@@ -19200,8 +22843,14 @@
       <c r="AL49">
         <v>2.5106593799087439E-2</v>
       </c>
+      <c r="AN49">
+        <v>0.76465681221157666</v>
+      </c>
+      <c r="AO49">
+        <v>2.5108349977951951E-2</v>
+      </c>
     </row>
-    <row r="50" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>0.79962948867703543</v>
       </c>
@@ -19274,8 +22923,14 @@
       <c r="AL50">
         <v>3.0942844748472559E-2</v>
       </c>
+      <c r="AN50">
+        <v>0.79962948867703543</v>
+      </c>
+      <c r="AO50">
+        <v>3.0944839680221187E-2</v>
+      </c>
     </row>
-    <row r="51" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>0.83620169068078132</v>
       </c>
@@ -19348,8 +23003,14 @@
       <c r="AL51">
         <v>3.7869390054283338E-2</v>
       </c>
+      <c r="AN51">
+        <v>0.83620169068078132</v>
+      </c>
+      <c r="AO51">
+        <v>3.7871596335178184E-2</v>
+      </c>
     </row>
-    <row r="52" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>0.87444657481836852</v>
       </c>
@@ -19422,8 +23083,14 @@
       <c r="AL52">
         <v>4.6028597143586765E-2</v>
       </c>
+      <c r="AN52">
+        <v>0.87444657481836852</v>
+      </c>
+      <c r="AO52">
+        <v>4.6030970886639905E-2</v>
+      </c>
     </row>
-    <row r="53" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>0.914440643607217</v>
       </c>
@@ -19496,8 +23163,14 @@
       <c r="AL53">
         <v>5.5569580531487618E-2</v>
       </c>
+      <c r="AN53">
+        <v>0.914440643607217</v>
+      </c>
+      <c r="AO53">
+        <v>5.5572060512356518E-2</v>
+      </c>
     </row>
-    <row r="54" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>0.95626389851714944</v>
       </c>
@@ -19570,8 +23243,14 @@
       <c r="AL54">
         <v>6.6646586841993372E-2</v>
       </c>
+      <c r="AN54">
+        <v>0.95626389851714944</v>
+      </c>
+      <c r="AO54">
+        <v>6.6649094519070903E-2</v>
+      </c>
     </row>
-    <row r="55" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>1</v>
       </c>
@@ -19644,8 +23323,14 @@
       <c r="AL55">
         <v>7.9417175124798817E-2</v>
       </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>7.9419615640161062E-2</v>
+      </c>
     </row>
-    <row r="56" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>1.0457364348384068</v>
       </c>
@@ -19718,8 +23403,14 @@
       <c r="AL56">
         <v>9.4040257182486223E-2</v>
       </c>
+      <c r="AN56">
+        <v>1.0457364348384068</v>
+      </c>
+      <c r="AO56">
+        <v>9.4042521383302269E-2</v>
+      </c>
     </row>
-    <row r="57" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>1.0935646911485417</v>
       </c>
@@ -19792,8 +23483,14 @@
       <c r="AL57">
         <v>0.11067407479272723</v>
       </c>
+      <c r="AN57">
+        <v>1.0935646911485417</v>
+      </c>
+      <c r="AO57">
+        <v>0.11067604223493797</v>
+      </c>
     </row>
-    <row r="58" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>1.1435804413868396</v>
       </c>
@@ -19866,8 +23563,14 @@
       <c r="AL58">
         <v>0.12947419896831611</v>
       </c>
+      <c r="AN58">
+        <v>1.1435804413868396</v>
+      </c>
+      <c r="AO58">
+        <v>0.12947574178270924</v>
+      </c>
     </row>
-    <row r="59" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>1.1958837337268053</v>
       </c>
@@ -19940,8 +23643,14 @@
       <c r="AL59">
         <v>0.15059163989407942</v>
       </c>
+      <c r="AN59">
+        <v>1.1958837337268053</v>
+      </c>
+      <c r="AO59">
+        <v>0.15059262731726955</v>
+      </c>
     </row>
-    <row r="60" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>1.2505791921887124</v>
       </c>
@@ -20014,8 +23723,14 @@
       <c r="AL60">
         <v>0.17417115440458458</v>
       </c>
+      <c r="AN60">
+        <v>1.2505791921887124</v>
+      </c>
+      <c r="AO60">
+        <v>0.17417145771194734</v>
+      </c>
     </row>
-    <row r="61" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>1.307776225922519</v>
       </c>
@@ -20088,8 +23803,14 @@
       <c r="AL61">
         <v>0.20034983071794479</v>
       </c>
+      <c r="AN61">
+        <v>1.307776225922519</v>
+      </c>
+      <c r="AO61">
+        <v>0.2003493282495456</v>
+      </c>
     </row>
-    <row r="62" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>1.3675892480626419</v>
       </c>
@@ -20162,8 +23883,14 @@
       <c r="AL62">
         <v>0.22925601795169992</v>
       </c>
+      <c r="AN62">
+        <v>1.3675892480626419</v>
+      </c>
+      <c r="AO62">
+        <v>0.22925459990128805</v>
+      </c>
     </row>
-    <row r="63" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>1.430137904592365</v>
       </c>
@@ -20236,8 +23963,14 @@
       <c r="AL63">
         <v>0.26100865146892588</v>
       </c>
+      <c r="AN63">
+        <v>1.430137904592365</v>
+      </c>
+      <c r="AO63">
+        <v>0.26100622411319152</v>
+      </c>
     </row>
-    <row r="64" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>1.4955473136756894</v>
       </c>
@@ -20310,8 +24043,14 @@
       <c r="AL64">
         <v>0.29571700544950374</v>
       </c>
+      <c r="AN64">
+        <v>1.4955473136756894</v>
+      </c>
+      <c r="AO64">
+        <v>0.29571349453020163</v>
+      </c>
     </row>
-    <row r="65" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>1.5639483159353722</v>
       </c>
@@ -20384,8 +24123,14 @@
       <c r="AL65">
         <v>0.33348088263078601</v>
       </c>
+      <c r="AN65">
+        <v>1.5639483159353722</v>
+      </c>
+      <c r="AO65">
+        <v>0.33347623566304341</v>
+      </c>
     </row>
-    <row r="66" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>1.6354777361777866</v>
       </c>
@@ -20458,8 +24203,14 @@
       <c r="AL66">
         <v>0.37439122943251646</v>
       </c>
+      <c r="AN66">
+        <v>1.6354777361777866</v>
+      </c>
+      <c r="AO66">
+        <v>0.37438541679307386</v>
+      </c>
     </row>
-    <row r="67" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>1.7102786570881472</v>
       </c>
@@ -20532,8 +24283,14 @@
       <c r="AL67">
         <v>0.41853114419525839</v>
       </c>
+      <c r="AN67">
+        <v>1.7102786570881472</v>
+      </c>
+      <c r="AO67">
+        <v>0.41852415893673744</v>
+      </c>
     </row>
-    <row r="68" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>1.7885007054435775</v>
       </c>
@@ -20606,8 +24363,14 @@
       <c r="AL68">
         <v>0.46597722840931327</v>
       </c>
+      <c r="AN68">
+        <v>1.7885007054435775</v>
+      </c>
+      <c r="AO68">
+        <v>0.46596908484194188</v>
+      </c>
     </row>
-    <row r="69" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>1.8703003514165424</v>
       </c>
@@ -20680,8 +24443,14 @@
       <c r="AL69">
         <v>0.51680121672862522</v>
       </c>
+      <c r="AN69">
+        <v>1.8703003514165424</v>
+      </c>
+      <c r="AO69">
+        <v>0.51679194790005212</v>
+      </c>
     </row>
-    <row r="70" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>1.9558412215673548</v>
       </c>
@@ -20754,8 +24523,14 @@
       <c r="AL70">
         <v>0.57107181204377344</v>
       </c>
+      <c r="AN70">
+        <v>1.9558412215673548</v>
+      </c>
+      <c r="AO70">
+        <v>0.57106146632255617</v>
+      </c>
     </row>
-    <row r="71" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>2.0452944261518402</v>
       </c>
@@ -20828,8 +24603,14 @@
       <c r="AL71">
         <v>0.62885664732363067</v>
       </c>
+      <c r="AN71">
+        <v>2.0452944261518402</v>
+      </c>
+      <c r="AO71">
+        <v>0.62884528434623743</v>
+      </c>
     </row>
-    <row r="72" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>2.1388389013988909</v>
       </c>
@@ -20902,8 +24683,14 @@
       <c r="AL72">
         <v>0.69022429631044491</v>
       </c>
+      <c r="AN72">
+        <v>2.1388389013988909</v>
+      </c>
+      <c r="AO72">
+        <v>0.69021198258130745</v>
+      </c>
     </row>
-    <row r="73" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>2.2366617674425711</v>
       </c>
@@ -20976,8 +24763,14 @@
       <c r="AL73">
         <v>0.75524626006965101</v>
       </c>
+      <c r="AN73">
+        <v>2.2366617674425711</v>
+      </c>
+      <c r="AO73">
+        <v>0.75523306450776939</v>
+      </c>
     </row>
-    <row r="74" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>2.3389587026247645</v>
       </c>
@@ -21050,8 +24843,14 @@
       <c r="AL74">
         <v>0.82399886513696907</v>
       </c>
+      <c r="AN74">
+        <v>2.3389587026247645</v>
+      </c>
+      <c r="AO74">
+        <v>0.8239848548422859</v>
+      </c>
     </row>
-    <row r="75" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>2.4459343349170868</v>
       </c>
@@ -21124,8 +24923,14 @@
       <c r="AL75">
         <v>0.89656502062500254</v>
       </c>
+      <c r="AN75">
+        <v>2.4459343349170868</v>
+      </c>
+      <c r="AO75">
+        <v>0.89655025709716252</v>
+      </c>
     </row>
-    <row r="76" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>2.5578026512450442</v>
       </c>
@@ -21198,8 +25003,14 @@
       <c r="AL76">
         <v>0.97303579507665128</v>
       </c>
+      <c r="AN76">
+        <v>2.5578026512450442</v>
+      </c>
+      <c r="AO76">
+        <v>0.97302033106331121</v>
+      </c>
     </row>
-    <row r="77" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>2.6747874255332178</v>
       </c>
@@ -21272,8 +25083,14 @@
       <c r="AL77">
         <v>1.0535117879883968</v>
       </c>
+      <c r="AN77">
+        <v>2.6747874255332178</v>
+      </c>
+      <c r="AO77">
+        <v>1.0534956650766183</v>
+      </c>
     </row>
-    <row r="78" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>2.797122666327708</v>
       </c>
@@ -21346,8 +25163,14 @@
       <c r="AL78">
         <v>1.1381042847519856</v>
       </c>
+      <c r="AN78">
+        <v>2.797122666327708</v>
+      </c>
+      <c r="AO78">
+        <v>1.1380875317507944</v>
+      </c>
     </row>
-    <row r="79" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>2.9250530848912364</v>
       </c>
@@ -21420,8 +25243,14 @@
       <c r="AL79">
         <v>1.2269361964087186</v>
       </c>
+      <c r="AN79">
+        <v>2.9250530848912364</v>
+      </c>
+      <c r="AO79">
+        <v>1.2269188285098185</v>
+      </c>
     </row>
-    <row r="80" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>3.0588345847072458</v>
       </c>
@@ -21494,8 +25323,14 @@
       <c r="AL80">
         <v>1.3201427964116241</v>
       </c>
+      <c r="AN80">
+        <v>3.0588345847072458</v>
+      </c>
+      <c r="AO80">
+        <v>1.320124815063469</v>
+      </c>
     </row>
-    <row r="81" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>3.1987347733721743</v>
       </c>
@@ -21568,8 +25403,14 @@
       <c r="AL81">
         <v>1.4178722751152633</v>
       </c>
+      <c r="AN81">
+        <v>3.1987347733721743</v>
+      </c>
+      <c r="AO81">
+        <v>1.4178536685060534</v>
+      </c>
     </row>
-    <row r="82" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>3.3450334978998568</v>
       </c>
@@ -21642,8 +25483,14 @@
       <c r="AL82">
         <v>1.5202861387624504</v>
       </c>
+      <c r="AN82">
+        <v>3.3450334978998568</v>
+      </c>
+      <c r="AO82">
+        <v>1.5202668827822965</v>
+      </c>
     </row>
-    <row r="83" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>3.4980234045088423</v>
       </c>
@@ -21716,8 +25563,14 @@
       <c r="AL83">
         <v>1.6275594833280913</v>
       </c>
+      <c r="AN83">
+        <v>3.4980234045088423</v>
+      </c>
+      <c r="AO83">
+        <v>1.6275395428691641</v>
+      </c>
     </row>
-    <row r="84" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>3.6580105240123832</v>
       </c>
@@ -21790,8 +25643,14 @@
       <c r="AL84">
         <v>1.7398811749065568</v>
       </c>
+      <c r="AN84">
+        <v>3.6580105240123832</v>
+      </c>
+      <c r="AO84">
+        <v>1.7398605053613792</v>
+      </c>
     </row>
-    <row r="85" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>3.8253148839820823</v>
       </c>
@@ -21864,8 +25723,14 @@
       <c r="AL85">
         <v>1.8574539677158455</v>
       </c>
+      <c r="AN85">
+        <v>3.8253148839820823</v>
+      </c>
+      <c r="AO85">
+        <v>1.8574325165456596</v>
+      </c>
     </row>
-    <row r="86" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>4.0002711489097171</v>
       </c>
@@ -21938,8 +25803,14 @@
       <c r="AL86">
         <v>1.9804945886455902</v>
       </c>
+      <c r="AN86">
+        <v>4.0002711489097171</v>
+      </c>
+      <c r="AO86">
+        <v>1.9804722969099002</v>
+      </c>
     </row>
-    <row r="87" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>4.1832292896477856</v>
       </c>
@@ -22012,8 +25883,14 @@
       <c r="AL87">
         <v>2.1092338140356834</v>
       </c>
+      <c r="AN87">
+        <v>4.1832292896477856</v>
+      </c>
+      <c r="AO87">
+        <v>2.1092106177979084</v>
+      </c>
     </row>
-    <row r="88" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>4.3745552834678767</v>
       </c>
@@ -22086,8 +25963,14 @@
       <c r="AL88">
         <v>2.2439165604684361</v>
       </c>
+      <c r="AN88">
+        <v>4.3745552834678767</v>
+      </c>
+      <c r="AO88">
+        <v>2.2438923920177904</v>
+      </c>
     </row>
-    <row r="89" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>4.5746318461372146</v>
       </c>
@@ -22160,8 +26043,14 @@
       <c r="AL89">
         <v>2.3848020071776248</v>
       </c>
+      <c r="AN89">
+        <v>4.5746318461372146</v>
+      </c>
+      <c r="AO89">
+        <v>2.3847767960318582</v>
+      </c>
     </row>
-    <row r="90" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>4.7838591974777698</v>
       </c>
@@ -22234,8 +26123,14 @@
       <c r="AL90">
         <v>2.5321637635468606</v>
       </c>
+      <c r="AN90">
+        <v>4.7838591974777698</v>
+      </c>
+      <c r="AO90">
+        <v>2.5321374372222301</v>
+      </c>
     </row>
-    <row r="91" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>5.002655861939326</v>
       </c>
@@ -22308,8 +26203,14 @@
       <c r="AL91">
         <v>2.6862900913365619</v>
       </c>
+      <c r="AN91">
+        <v>5.002655861939326</v>
+      </c>
+      <c r="AO91">
+        <v>2.6862625758891716</v>
+      </c>
     </row>
-    <row r="92" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>5.2314595057878881</v>
       </c>
@@ -22382,8 +26283,14 @@
       <c r="AL92">
         <v>2.8474841879128623</v>
       </c>
+      <c r="AN92">
+        <v>5.2314595057878881</v>
+      </c>
+      <c r="AO92">
+        <v>2.8474554082690102</v>
+      </c>
     </row>
-    <row r="93" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>5.470727812584121</v>
       </c>
@@ -22456,8 +26363,14 @@
       <c r="AL93">
         <v>3.0160645339510235</v>
       </c>
+      <c r="AN93">
+        <v>5.470727812584121</v>
+      </c>
+      <c r="AO93">
+        <v>3.016034414052978</v>
+      </c>
     </row>
-    <row r="94" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>5.7209393987030346</v>
       </c>
@@ -22530,8 +26443,14 @@
       <c r="AL94">
         <v>3.1923653068836275</v>
       </c>
+      <c r="AN94">
+        <v>5.7209393987030346</v>
+      </c>
+      <c r="AO94">
+        <v>3.192333769682155</v>
+      </c>
     </row>
-    <row r="95" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>5.9825947707262914</v>
       </c>
@@ -22604,8 +26523,14 @@
       <c r="AL95">
         <v>3.3767368597433252</v>
       </c>
+      <c r="AN95">
+        <v>5.9825947707262914</v>
+      </c>
+      <c r="AO95">
+        <v>3.3767038270695635</v>
+      </c>
     </row>
-    <row r="96" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>6.2562173266222079</v>
       </c>
@@ -22678,8 +26603,14 @@
       <c r="AL96">
         <v>3.5695462639580686</v>
       </c>
+      <c r="AN96">
+        <v>6.2562173266222079</v>
+      </c>
+      <c r="AO96">
+        <v>3.5695116563061564</v>
+      </c>
     </row>
-    <row r="97" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>6.5423544027161773</v>
       </c>
@@ -22752,8 +26683,14 @@
       <c r="AL97">
         <v>3.7711779140169472</v>
       </c>
+      <c r="AN97">
+        <v>6.5423544027161773</v>
+      </c>
+      <c r="AO97">
+        <v>3.771141650265776</v>
+      </c>
     </row>
-    <row r="98" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>6.8415783685457701</v>
       </c>
@@ -22826,8 +26763,14 @@
       <c r="AL98">
         <v>3.9820341916477218</v>
       </c>
+      <c r="AN98">
+        <v>6.8415783685457701</v>
+      </c>
+      <c r="AO98">
+        <v>3.9819961887461899</v>
+      </c>
     </row>
-    <row r="99" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>7.1544877717906186</v>
       </c>
@@ -22900,8 +26843,14 @@
       <c r="AL99">
         <v>4.2025361871401286</v>
       </c>
+      <c r="AN99">
+        <v>7.1544877717906186</v>
+      </c>
+      <c r="AO99">
+        <v>4.2024963597760969</v>
+      </c>
     </row>
-    <row r="100" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>7.4817085355672992</v>
       </c>
@@ -22974,8 +26923,14 @@
       <c r="AL100">
         <v>4.4331244756211774</v>
       </c>
+      <c r="AN100">
+        <v>7.4817085355672992</v>
+      </c>
+      <c r="AO100">
+        <v>4.4330827358902356</v>
+      </c>
     </row>
-    <row r="101" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>7.8238952104842276</v>
       </c>
@@ -23048,8 +27003,14 @@
       <c r="AL101">
         <v>4.6742599463526311</v>
       </c>
+      <c r="AN101">
+        <v>7.8238952104842276</v>
+      </c>
+      <c r="AO101">
+        <v>4.6742162034398724</v>
+      </c>
     </row>
-    <row r="102" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>8.1817322839610611</v>
       </c>
@@ -23122,8 +27083,14 @@
       <c r="AL102">
         <v>4.9264246833931731</v>
       </c>
+      <c r="AN102">
+        <v>8.1817322839610611</v>
+      </c>
+      <c r="AO102">
+        <v>4.9263788432786741</v>
+      </c>
     </row>
-    <row r="103" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>8.5559355494317391</v>
       </c>
@@ -23196,8 +27163,14 @@
       <c r="AL103">
         <v>5.1901228961655459</v>
       </c>
+      <c r="AN103">
+        <v>8.5559355494317391</v>
+      </c>
+      <c r="AO103">
+        <v>5.1900748613639918</v>
+      </c>
     </row>
-    <row r="104" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>8.9472535381699316</v>
       </c>
@@ -23269,6 +27242,12 @@
       </c>
       <c r="AL104">
         <v>5.4658818984988677</v>
+      </c>
+      <c r="AN104">
+        <v>8.9472535381699316</v>
+      </c>
+      <c r="AO104">
+        <v>5.4658315678439031</v>
       </c>
     </row>
   </sheetData>
@@ -23278,15 +27257,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86932C3E-D37B-4E4F-A2DE-8AA138753A34}">
-  <dimension ref="A1:AL104"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23373,8 +27356,15 @@
       <c r="AL1" s="2">
         <v>6400</v>
       </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -23499,11 +27489,21 @@
         <f t="array" ref="AK2:AL104">_xll.xBlackFd(AJ2:AJ5,AJ8:AJ13,AJ16:AJ22)</f>
         <v>res 0</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="6">
         <v>7.9422772710569314E-2</v>
       </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="str" cm="1">
+        <f t="array" ref="AN2:AO104">_xll.xBlackFd(AM2:AM5,AM8:AM13,AM16:AM22)</f>
+        <v>res 0</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>7.9420332130106228E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -23615,8 +27615,17 @@
       <c r="AL3" t="str">
         <v/>
       </c>
+      <c r="AM3">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -23728,8 +27737,17 @@
       <c r="AL4" t="str">
         <v>res</v>
       </c>
+      <c r="AM4">
+        <v>-0.03</v>
+      </c>
+      <c r="AN4" t="str">
+        <v>s</v>
+      </c>
+      <c r="AO4" t="str">
+        <v>res</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23841,8 +27859,17 @@
       <c r="AL5">
         <v>-2.5633169610685078E-10</v>
       </c>
+      <c r="AM5">
+        <v>0.2</v>
+      </c>
+      <c r="AN5">
+        <v>0.10687792566038574</v>
+      </c>
+      <c r="AO5">
+        <v>-2.5927951773386002E-10</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>0.1117661409430161</v>
       </c>
@@ -23915,8 +27942,14 @@
       <c r="AL6">
         <v>8.4665206474219599E-10</v>
       </c>
+      <c r="AN6">
+        <v>0.1117661409430161</v>
+      </c>
+      <c r="AO6">
+        <v>8.5303209693348653E-10</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -23992,8 +28025,14 @@
       <c r="AL7">
         <v>2.2915120786815265E-9</v>
       </c>
+      <c r="AN7">
+        <v>0.11687792576539653</v>
+      </c>
+      <c r="AO7">
+        <v>2.3093132557407066E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -24105,8 +28144,17 @@
       <c r="AL8">
         <v>4.4843567196744026E-9</v>
       </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>0.12222350540121378</v>
+      </c>
+      <c r="AO8">
+        <v>4.5178409273899006E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -24218,8 +28266,17 @@
       <c r="AL9">
         <v>8.0443254614546957E-9</v>
       </c>
+      <c r="AM9">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.12781357279171804</v>
+      </c>
+      <c r="AO9">
+        <v>8.1007226530923082E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -24331,8 +28388,17 @@
       <c r="AL10">
         <v>1.3955747397622506E-8</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0.13365930993517047</v>
+      </c>
+      <c r="AO10">
+        <v>1.4046474576609133E-8</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -24444,8 +28510,17 @@
       <c r="AL11">
         <v>2.3803266814398664E-8</v>
       </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0.13977241025456683</v>
+      </c>
+      <c r="AO11">
+        <v>2.3945703119597852E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -24557,8 +28632,17 @@
       <c r="AL12">
         <v>4.013655740601961E-8</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.1461651019883819</v>
+      </c>
+      <c r="AO12">
+        <v>4.0356549143954653E-8</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -24670,8 +28754,17 @@
       <c r="AL13">
         <v>6.7033633689317168E-8</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0.15285017265112263</v>
+      </c>
+      <c r="AO13">
+        <v>6.7368941629578729E-8</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>0.15984099461261997</v>
       </c>
@@ -24744,8 +28837,14 @@
       <c r="AL14">
         <v>1.1096404486084659E-7</v>
       </c>
+      <c r="AN14">
+        <v>0.15984099461261997</v>
+      </c>
+      <c r="AO14">
+        <v>1.1146898086522367E-7</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -24821,8 +28920,14 @@
       <c r="AL15">
         <v>1.8209902496088514E-7</v>
       </c>
+      <c r="AN15">
+        <v>0.16715155184722622</v>
+      </c>
+      <c r="AO15">
+        <v>1.8285054811946532E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -24934,8 +29039,18 @@
       <c r="AL16">
         <v>2.9627962283906444E-7</v>
       </c>
+      <c r="AM16">
+        <f>AJ16</f>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0.17479646790642547</v>
+      </c>
+      <c r="AO16">
+        <v>2.9738516498531962E-7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -25047,8 +29162,17 @@
       <c r="AL17">
         <v>4.779417624463908E-7</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0.18279103517081138</v>
+      </c>
+      <c r="AO17">
+        <v>4.795490129464376E-7</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -25160,8 +29284,17 @@
       <c r="AL18">
         <v>7.6441615902717652E-7</v>
       </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>0.19115124543994613</v>
+      </c>
+      <c r="AO18">
+        <v>7.667249379295772E-7</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -25273,8 +29406,18 @@
       <c r="AL19">
         <v>1.2121793532230797E-6</v>
       </c>
+      <c r="AM19" s="1">
+        <f>AO1</f>
+        <v>50000</v>
+      </c>
+      <c r="AN19">
+        <v>0.19989382192129057</v>
+      </c>
+      <c r="AO19">
+        <v>1.2154555144354669E-6</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -25386,8 +29529,17 @@
       <c r="AL20">
         <v>1.9058392111493521E-6</v>
       </c>
+      <c r="AM20">
+        <v>98</v>
+      </c>
+      <c r="AN20">
+        <v>0.20903625268219381</v>
+      </c>
+      <c r="AO20">
+        <v>1.910430214124029E-6</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -25499,8 +29651,17 @@
       <c r="AL21">
         <v>2.9709041429289874E-6</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0.21859682563185773</v>
+      </c>
+      <c r="AO21">
+        <v>2.9772554824983293E-6</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -25612,8 +29773,17 @@
       <c r="AL22">
         <v>4.5917200657453888E-6</v>
       </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0.22859466510325177</v>
+      </c>
+      <c r="AO22">
+        <v>4.600391129008436E-6</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.23904977010815412</v>
       </c>
@@ -25686,8 +29856,14 @@
       <c r="AL23">
         <v>7.0363717322381395E-6</v>
       </c>
+      <c r="AN23">
+        <v>0.23904977010815412</v>
+      </c>
+      <c r="AO23">
+        <v>7.048048842581561E-6</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -25767,8 +29943,14 @@
       <c r="AL24">
         <v>1.0690841785633426E-5</v>
       </c>
+      <c r="AN24">
+        <v>0.24998305434184187</v>
+      </c>
+      <c r="AO24">
+        <v>1.0706345199404919E-5</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.26141638801745343</v>
       </c>
@@ -25841,8 +30023,14 @@
       <c r="AL25">
         <v>1.6105303473380464E-5</v>
       </c>
+      <c r="AN25">
+        <v>0.26141638801745343</v>
+      </c>
+      <c r="AO25">
+        <v>1.6125583945398454E-5</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>0.27337264161370539</v>
       </c>
@@ -25915,8 +30103,14 @@
       <c r="AL26">
         <v>2.4056085911080473E-5</v>
       </c>
+      <c r="AN26">
+        <v>0.27337264161370539</v>
+      </c>
+      <c r="AO26">
+        <v>2.408220521162952E-5</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.28587573162347385</v>
       </c>
@@ -25989,8 +30183,14 @@
       <c r="AL27">
         <v>3.5627578708660287E-5</v>
       </c>
+      <c r="AN27">
+        <v>0.28587573162347385</v>
+      </c>
+      <c r="AO27">
+        <v>3.5660667277269654E-5</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>0.29895066839475276</v>
       </c>
@@ -26063,8 +30263,14 @@
       <c r="AL28">
         <v>5.2319107173159295E-5</v>
       </c>
+      <c r="AN28">
+        <v>0.29895066839475276</v>
+      </c>
+      <c r="AO28">
+        <v>5.2360291110844164E-5</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.31262360615968754</v>
       </c>
@@ -26137,8 +30343,14 @@
       <c r="AL29">
         <v>7.6182565713538755E-5</v>
       </c>
+      <c r="AN29">
+        <v>0.31262360615968754</v>
+      </c>
+      <c r="AO29">
+        <v>7.6232854781686945E-5</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>0.32692189535175792</v>
       </c>
@@ -26211,8 +30423,14 @@
       <c r="AL30">
         <v>1.0999728262062427E-4</v>
       </c>
+      <c r="AN30">
+        <v>0.32692189535175792</v>
+      </c>
+      <c r="AO30">
+        <v>1.1005741111948627E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.34187413731576205</v>
       </c>
@@ -26285,8 +30503,14 @@
       <c r="AL31">
         <v>1.5748912150383924E-4</v>
       </c>
+      <c r="AN31">
+        <v>0.34187413731576205</v>
+      </c>
+      <c r="AO31">
+        <v>1.5755933516769765E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>0.35751024152004102</v>
       </c>
@@ -26359,8 +30583,14 @@
       <c r="AL32">
         <v>2.2360110148821305E-4</v>
       </c>
+      <c r="AN32">
+        <v>0.35751024152004102</v>
+      </c>
+      <c r="AO32">
+        <v>2.2368088617906069E-4</v>
+      </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.37386148538538549</v>
       </c>
@@ -26433,8 +30663,14 @@
       <c r="AL33">
         <v>3.1482272152983065E-4</v>
       </c>
+      <c r="AN33">
+        <v>0.37386148538538549</v>
+      </c>
+      <c r="AO33">
+        <v>3.1491047381074851E-4</v>
+      </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>0.39096057685030422</v>
       </c>
@@ -26507,8 +30743,14 @@
       <c r="AL34">
         <v>4.3958457503592027E-4</v>
       </c>
+      <c r="AN34">
+        <v>0.39096057685030422</v>
+      </c>
+      <c r="AO34">
+        <v>4.3967722082574546E-4</v>
+      </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>0.40884171979780415</v>
       </c>
@@ -26581,8 +30823,14 @@
       <c r="AL35">
         <v>6.0872360923648605E-4</v>
       </c>
+      <c r="AN35">
+        <v>0.40884171979780415</v>
+      </c>
+      <c r="AO35">
+        <v>6.0881618467918523E-4</v>
+      </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>0.42754068247455868</v>
       </c>
@@ -26655,8 +30903,14 @@
       <c r="AL36">
         <v>8.3602240088588803E-4</v>
       </c>
+      <c r="AN36">
+        <v>0.42754068247455868</v>
+      </c>
+      <c r="AO36">
+        <v>8.3610761905693722E-4</v>
+      </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>0.44709486903932433</v>
       </c>
@@ -26729,8 +30983,14 @@
       <c r="AL37">
         <v>1.1388229949800715E-3</v>
       </c>
+      <c r="AN37">
+        <v>0.44709486903932433</v>
+      </c>
+      <c r="AO37">
+        <v>1.138890832542157E-3</v>
+      </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>0.46754339438372744</v>
       </c>
@@ -26803,8 +31063,14 @@
       <c r="AL38">
         <v>1.5387121414530218E-3</v>
       </c>
+      <c r="AN38">
+        <v>0.46754339438372744</v>
+      </c>
+      <c r="AO38">
+        <v>1.5387494899748869E-3</v>
+      </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>0.48892716237508643</v>
       </c>
@@ -26877,8 +31143,14 @@
       <c r="AL39">
         <v>2.0622701867824148E-3</v>
       </c>
+      <c r="AN39">
+        <v>0.48892716237508643</v>
+      </c>
+      <c r="AO39">
+        <v>2.062260622932301E-3</v>
+      </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>0.51128894767778177</v>
       </c>
@@ -26951,8 +31223,14 @@
       <c r="AL40">
         <v>2.741870536840958E-3</v>
       </c>
+      <c r="AN40">
+        <v>0.51128894767778177</v>
+      </c>
+      <c r="AO40">
+        <v>2.7417942725778996E-3</v>
+      </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>0.53467348131684422</v>
       </c>
@@ -27025,8 +31303,14 @@
       <c r="AL41">
         <v>3.6165107051138066E-3</v>
       </c>
+      <c r="AN41">
+        <v>0.53467348131684422</v>
+      </c>
+      <c r="AO41">
+        <v>3.6163447816986729E-3</v>
+      </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>0.55912754015491628</v>
       </c>
@@ -27099,8 +31383,14 @@
       <c r="AL42">
         <v>4.7326498017920011E-3</v>
       </c>
+      <c r="AN42">
+        <v>0.55912754015491628</v>
+      </c>
+      <c r="AO42">
+        <v>4.7323685883301596E-3</v>
+      </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>0.58470004046157042</v>
       </c>
@@ -27173,8 +31463,14 @@
       <c r="AL43">
         <v>6.145021311203717E-3</v>
       </c>
+      <c r="AN43">
+        <v>0.58470004046157042</v>
+      </c>
+      <c r="AO43">
+        <v>6.1445973581789265E-3</v>
+      </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>0.61144213576215489</v>
       </c>
@@ -27247,8 +31543,14 @@
       <c r="AL44">
         <v>7.9173846417290045E-3</v>
       </c>
+      <c r="AN44">
+        <v>0.61144213576215489</v>
+      </c>
+      <c r="AO44">
+        <v>7.9167899217784526E-3</v>
+      </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>0.63940731916189708</v>
       </c>
@@ -27321,8 +31623,14 @@
       <c r="AL45">
         <v>1.0123174767361146E-2</v>
       </c>
+      <c r="AN45">
+        <v>0.63940731916189708</v>
+      </c>
+      <c r="AO45">
+        <v>1.0122382309325611E-2</v>
+      </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>0.66865153034994573</v>
       </c>
@@ -27395,8 +31703,14 @@
       <c r="AL46">
         <v>1.284600688555281E-2</v>
       </c>
+      <c r="AN46">
+        <v>0.66865153034994573</v>
+      </c>
+      <c r="AO46">
+        <v>1.2844992774537611E-2</v>
+      </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>0.699233267497397</v>
       </c>
@@ -27469,8 +31783,14 @@
       <c r="AL47">
         <v>1.6179992930434213E-2</v>
       </c>
+      <c r="AN47">
+        <v>0.699233267497397</v>
+      </c>
+      <c r="AO47">
+        <v>1.6178738608242441E-2</v>
+      </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>0.73121370427313814</v>
       </c>
@@ -27543,8 +31863,14 @@
       <c r="AL48">
         <v>2.0229829449263843E-2</v>
       </c>
+      <c r="AN48">
+        <v>0.73121370427313814</v>
+      </c>
+      <c r="AO48">
+        <v>2.0228324209193443E-2</v>
+      </c>
     </row>
-    <row r="49" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>0.76465681221157666</v>
       </c>
@@ -27617,8 +31943,14 @@
       <c r="AL49">
         <v>2.5110622063926401E-2</v>
       </c>
+      <c r="AN49">
+        <v>0.76465681221157666</v>
+      </c>
+      <c r="AO49">
+        <v>2.5108865595524749E-2</v>
+      </c>
     </row>
-    <row r="50" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>0.79962948867703543</v>
       </c>
@@ -27691,8 +32023,14 @@
       <c r="AL50">
         <v>3.0947420578592223E-2</v>
       </c>
+      <c r="AN50">
+        <v>0.79962948867703543</v>
+      </c>
+      <c r="AO50">
+        <v>3.0945425386074553E-2</v>
+      </c>
     </row>
-    <row r="51" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>0.83620169068078132</v>
       </c>
@@ -27765,8 +32103,14 @@
       <c r="AL51">
         <v>3.7874450585396152E-2</v>
       </c>
+      <c r="AN51">
+        <v>0.83620169068078132</v>
+      </c>
+      <c r="AO51">
+        <v>3.7872244082668795E-2</v>
+      </c>
     </row>
-    <row r="52" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>0.87444657481836852</v>
       </c>
@@ -27839,8 +32183,14 @@
       <c r="AL52">
         <v>4.6034041710975603E-2</v>
       </c>
+      <c r="AN52">
+        <v>0.87444657481836852</v>
+      </c>
+      <c r="AO52">
+        <v>4.6031667790667488E-2</v>
+      </c>
     </row>
-    <row r="53" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>0.914440643607217</v>
       </c>
@@ -27913,8 +32263,14 @@
       <c r="AL53">
         <v>5.5575268712148754E-2</v>
       </c>
+      <c r="AN53">
+        <v>0.914440643607217</v>
+      </c>
+      <c r="AO53">
+        <v>5.5572788598758416E-2</v>
+      </c>
     </row>
-    <row r="54" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>0.95626389851714944</v>
       </c>
@@ -27987,8 +32343,14 @@
       <c r="AL54">
         <v>6.6652338501033026E-2</v>
       </c>
+      <c r="AN54">
+        <v>0.95626389851714944</v>
+      </c>
+      <c r="AO54">
+        <v>6.6649830730560911E-2</v>
+      </c>
     </row>
-    <row r="55" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>1</v>
       </c>
@@ -28061,8 +32423,14 @@
       <c r="AL55">
         <v>7.9422772710569314E-2</v>
       </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>7.9420332130106228E-2</v>
+      </c>
     </row>
-    <row r="56" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>1.0457364348384068</v>
       </c>
@@ -28135,8 +32503,14 @@
       <c r="AL56">
         <v>9.4045450361266214E-2</v>
       </c>
+      <c r="AN56">
+        <v>1.0457364348384068</v>
+      </c>
+      <c r="AO56">
+        <v>9.4043186108962312E-2</v>
+      </c>
     </row>
-    <row r="57" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>1.0935646911485417</v>
       </c>
@@ -28209,8 +32583,14 @@
       <c r="AL57">
         <v>0.11067858733544053</v>
       </c>
+      <c r="AN57">
+        <v>1.0935646911485417</v>
+      </c>
+      <c r="AO57">
+        <v>0.11067661983896512</v>
+      </c>
     </row>
-    <row r="58" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>1.1435804413868396</v>
       </c>
@@ -28283,8 +32663,14 @@
       <c r="AL58">
         <v>0.12947773761460413</v>
       </c>
+      <c r="AN58">
+        <v>1.1435804413868396</v>
+      </c>
+      <c r="AO58">
+        <v>0.12947619472774977</v>
+      </c>
     </row>
-    <row r="59" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>1.1958837337268053</v>
       </c>
@@ -28357,8 +32743,14 @@
       <c r="AL59">
         <v>0.15059390474112305</v>
       </c>
+      <c r="AN59">
+        <v>1.1958837337268053</v>
+      </c>
+      <c r="AO59">
+        <v>0.15059291721573187</v>
+      </c>
     </row>
-    <row r="60" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>1.2505791921887124</v>
       </c>
@@ -28431,8 +32823,14 @@
       <c r="AL60">
         <v>0.17417185021800022</v>
       </c>
+      <c r="AN60">
+        <v>1.2505791921887124</v>
+      </c>
+      <c r="AO60">
+        <v>0.17417154677379884</v>
+      </c>
     </row>
-    <row r="61" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>1.307776225922519</v>
       </c>
@@ -28505,8 +32903,14 @@
       <c r="AL61">
         <v>0.20034867845659821</v>
       </c>
+      <c r="AN61">
+        <v>1.307776225922519</v>
+      </c>
+      <c r="AO61">
+        <v>0.20034918075748698</v>
+      </c>
     </row>
-    <row r="62" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>1.3675892480626419</v>
       </c>
@@ -28579,8 +32983,14 @@
       <c r="AL62">
         <v>0.22925276575011241</v>
       </c>
+      <c r="AN62">
+        <v>1.3675892480626419</v>
+      </c>
+      <c r="AO62">
+        <v>0.2292541836165008</v>
+      </c>
     </row>
-    <row r="63" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>1.430137904592365</v>
       </c>
@@ -28653,8 +33063,14 @@
       <c r="AL63">
         <v>0.26100308433719915</v>
       </c>
+      <c r="AN63">
+        <v>1.430137904592365</v>
+      </c>
+      <c r="AO63">
+        <v>0.26100551151693113</v>
+      </c>
     </row>
-    <row r="64" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>1.4955473136756894</v>
       </c>
@@ -28727,8 +33143,14 @@
       <c r="AL64">
         <v>0.2957089530317274</v>
       </c>
+      <c r="AN64">
+        <v>1.4955473136756894</v>
+      </c>
+      <c r="AO64">
+        <v>0.29571246381687344</v>
+      </c>
     </row>
-    <row r="65" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>1.5639483159353722</v>
       </c>
@@ -28801,8 +33223,14 @@
       <c r="AL65">
         <v>0.3334702245019579</v>
       </c>
+      <c r="AN65">
+        <v>1.5639483159353722</v>
+      </c>
+      <c r="AO65">
+        <v>0.33347487141820575</v>
+      </c>
     </row>
-    <row r="66" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>1.6354777361777866</v>
       </c>
@@ -28875,8 +33303,14 @@
       <c r="AL66">
         <v>0.37437789759829498</v>
       </c>
+      <c r="AN66">
+        <v>1.6354777361777866</v>
+      </c>
+      <c r="AO66">
+        <v>0.37438371031341</v>
+      </c>
     </row>
-    <row r="67" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>1.7102786570881472</v>
       </c>
@@ -28949,8 +33383,14 @@
       <c r="AL67">
         <v>0.41851512267053331</v>
       </c>
+      <c r="AN67">
+        <v>1.7102786570881472</v>
+      </c>
+      <c r="AO67">
+        <v>0.41852210817611207</v>
+      </c>
     </row>
-    <row r="68" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>1.7885007054435775</v>
       </c>
@@ -29023,8 +33463,14 @@
       <c r="AL68">
         <v>0.46595854997005703</v>
       </c>
+      <c r="AN68">
+        <v>1.7885007054435775</v>
+      </c>
+      <c r="AO68">
+        <v>0.46596669399563684</v>
+      </c>
     </row>
-    <row r="69" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>1.8703003514165424</v>
       </c>
@@ -29097,8 +33543,14 @@
       <c r="AL69">
         <v>0.51677995713615266</v>
       </c>
+      <c r="AN69">
+        <v>1.8703003514165424</v>
+      </c>
+      <c r="AO69">
+        <v>0.51678922666547344</v>
+      </c>
     </row>
-    <row r="70" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>1.9558412215673548</v>
       </c>
@@ -29171,8 +33623,14 @@
       <c r="AL70">
         <v>0.57104808221236625</v>
       </c>
+      <c r="AN70">
+        <v>1.9558412215673548</v>
+      </c>
+      <c r="AO70">
+        <v>0.57105842889668901</v>
+      </c>
     </row>
-    <row r="71" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>2.0452944261518402</v>
       </c>
@@ -29245,8 +33703,14 @@
       <c r="AL71">
         <v>0.62883058402710623</v>
       </c>
+      <c r="AN71">
+        <v>2.0452944261518402</v>
+      </c>
+      <c r="AO71">
+        <v>0.62884194823608641</v>
+      </c>
     </row>
-    <row r="72" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>2.1388389013988909</v>
       </c>
@@ -29319,8 +33783,14 @@
       <c r="AL72">
         <v>0.69019605209146406</v>
       </c>
+      <c r="AN72">
+        <v>2.1388389013988909</v>
+      </c>
+      <c r="AO72">
+        <v>0.69020836731228608</v>
+      </c>
     </row>
-    <row r="73" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>2.2366617674425711</v>
       </c>
@@ -29393,8 +33863,14 @@
       <c r="AL73">
         <v>0.755215993024837</v>
       </c>
+      <c r="AN73">
+        <v>2.2366617674425711</v>
+      </c>
+      <c r="AO73">
+        <v>0.75522919031619928</v>
+      </c>
     </row>
-    <row r="74" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>2.3389587026247645</v>
       </c>
@@ -29467,8 +33943,14 @@
       <c r="AL74">
         <v>0.8239667292046291</v>
       </c>
+      <c r="AN74">
+        <v>2.3389587026247645</v>
+      </c>
+      <c r="AO74">
+        <v>0.82398074143223055</v>
+      </c>
     </row>
-    <row r="75" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>2.4459343349170868</v>
       </c>
@@ -29541,8 +34023,14 @@
       <c r="AL75">
         <v>0.89653115690919905</v>
       </c>
+      <c r="AN75">
+        <v>2.4459343349170868</v>
+      </c>
+      <c r="AO75">
+        <v>0.89654592252988807</v>
+      </c>
     </row>
-    <row r="76" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>2.5578026512450442</v>
       </c>
@@ -29615,8 +34103,14 @@
       <c r="AL76">
         <v>0.97300032461443497</v>
       </c>
+      <c r="AN76">
+        <v>2.5578026512450442</v>
+      </c>
+      <c r="AO76">
+        <v>0.97301579083151502</v>
+      </c>
     </row>
-    <row r="77" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>2.6747874255332178</v>
       </c>
@@ -29689,8 +34183,14 @@
       <c r="AL77">
         <v>1.0534748062209407</v>
       </c>
+      <c r="AN77">
+        <v>2.6747874255332178</v>
+      </c>
+      <c r="AO77">
+        <v>1.0534909313967209</v>
+      </c>
     </row>
-    <row r="78" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>2.797122666327708</v>
       </c>
@@ -29763,8 +34263,14 @@
       <c r="AL78">
         <v>1.1380658578104061</v>
       </c>
+      <c r="AN78">
+        <v>2.797122666327708</v>
+      </c>
+      <c r="AO78">
+        <v>1.1380826130875172</v>
+      </c>
     </row>
-    <row r="79" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>2.9250530848912364</v>
       </c>
@@ -29837,8 +34343,14 @@
       <c r="AL79">
         <v>1.2268963591852877</v>
       </c>
+      <c r="AN79">
+        <v>2.9250530848912364</v>
+      </c>
+      <c r="AO79">
+        <v>1.2269137293293182</v>
+      </c>
     </row>
-    <row r="80" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>3.0588345847072458</v>
       </c>
@@ -29911,8 +34423,14 @@
       <c r="AL80">
         <v>1.3201015522678647</v>
       </c>
+      <c r="AN80">
+        <v>3.0588345847072458</v>
+      </c>
+      <c r="AO80">
+        <v>1.3201195357959703</v>
+      </c>
     </row>
-    <row r="81" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>3.1987347733721743</v>
       </c>
@@ -29985,8 +34503,14 @@
       <c r="AL81">
         <v>1.4178295969877619</v>
       </c>
+      <c r="AN81">
+        <v>3.1987347733721743</v>
+      </c>
+      <c r="AO81">
+        <v>1.417848205687384</v>
+      </c>
     </row>
-    <row r="82" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>3.3450334978998568</v>
       </c>
@@ -30059,8 +34583,14 @@
       <c r="AL82">
         <v>1.520241971368778</v>
       </c>
+      <c r="AN82">
+        <v>3.3450334978998568</v>
+      </c>
+      <c r="AO82">
+        <v>1.5202612293362434</v>
+      </c>
     </row>
-    <row r="83" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>3.4980234045088423</v>
       </c>
@@ -30133,8 +34663,14 @@
       <c r="AL83">
         <v>1.6275137461489722</v>
       </c>
+      <c r="AN83">
+        <v>3.4980234045088423</v>
+      </c>
+      <c r="AO83">
+        <v>1.6275336884892015</v>
+      </c>
     </row>
-    <row r="84" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>3.6580105240123832</v>
       </c>
@@ -30207,8 +34743,14 @@
       <c r="AL84">
         <v>1.7398337656233873</v>
       </c>
+      <c r="AN84">
+        <v>3.6580105240123832</v>
+      </c>
+      <c r="AO84">
+        <v>1.7398544369506772</v>
+      </c>
     </row>
-    <row r="85" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>3.8253148839820823</v>
       </c>
@@ -30281,8 +34823,14 @@
       <c r="AL85">
         <v>1.8574047658096524</v>
       </c>
+      <c r="AN85">
+        <v>3.8253148839820823</v>
+      </c>
+      <c r="AO85">
+        <v>1.8574262186777359</v>
+      </c>
     </row>
-    <row r="86" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>4.0002711489097171</v>
       </c>
@@ -30355,8 +34903,14 @@
       <c r="AL86">
         <v>1.9804434589073727</v>
       </c>
+      <c r="AN86">
+        <v>4.0002711489097171</v>
+      </c>
+      <c r="AO86">
+        <v>1.9804657522779581</v>
+      </c>
     </row>
-    <row r="87" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>4.1832292896477856</v>
       </c>
@@ -30429,8 +34983,14 @@
       <c r="AL87">
         <v>2.1091806097927095</v>
       </c>
+      <c r="AN87">
+        <v>4.1832292896477856</v>
+      </c>
+      <c r="AO87">
+        <v>2.1092038076277952</v>
+      </c>
     </row>
-    <row r="88" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>4.3745552834678767</v>
       </c>
@@ -30503,8 +35063,14 @@
       <c r="AL88">
         <v>2.2438611263891031</v>
       </c>
+      <c r="AN88">
+        <v>4.3745552834678767</v>
+      </c>
+      <c r="AO88">
+        <v>2.2438852964270168</v>
+      </c>
     </row>
-    <row r="89" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>4.5746318461372146</v>
       </c>
@@ -30577,8 +35143,14 @@
       <c r="AL89">
         <v>2.3847441815733563</v>
       </c>
+      <c r="AN89">
+        <v>4.5746318461372146</v>
+      </c>
+      <c r="AO89">
+        <v>2.3847693943242829</v>
+      </c>
     </row>
-    <row r="90" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>4.7838591974777698</v>
       </c>
@@ -30651,8 +35223,14 @@
       <c r="AL90">
         <v>2.5321033801398243</v>
       </c>
+      <c r="AN90">
+        <v>4.7838591974777698</v>
+      </c>
+      <c r="AO90">
+        <v>2.5321297081142662</v>
+      </c>
     </row>
-    <row r="91" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>5.002655861939326</v>
       </c>
@@ -30725,8 +35303,14 @@
       <c r="AL91">
         <v>2.6862269805025458</v>
       </c>
+      <c r="AN91">
+        <v>5.002655861939326</v>
+      </c>
+      <c r="AO91">
+        <v>2.6862544976689233</v>
+      </c>
     </row>
-    <row r="92" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>5.2314595057878881</v>
       </c>
@@ -30799,8 +35383,14 @@
       <c r="AL92">
         <v>2.8474181774397027</v>
       </c>
+      <c r="AN92">
+        <v>5.2314595057878881</v>
+      </c>
+      <c r="AO92">
+        <v>2.8474469588933422</v>
+      </c>
     </row>
-    <row r="93" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>5.470727812584121</v>
       </c>
@@ -30873,8 +35463,14 @@
       <c r="AL93">
         <v>3.0159954493734085</v>
       </c>
+      <c r="AN93">
+        <v>5.470727812584121</v>
+      </c>
+      <c r="AO93">
+        <v>3.0160255711903745</v>
+      </c>
     </row>
-    <row r="94" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>5.7209393987030346</v>
       </c>
@@ -30947,8 +35543,14 @@
       <c r="AL94">
         <v>3.1922929714659611</v>
       </c>
+      <c r="AN94">
+        <v>5.7209393987030346</v>
+      </c>
+      <c r="AO94">
+        <v>3.1923245107105473</v>
+      </c>
     </row>
-    <row r="95" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>5.9825947707262914</v>
       </c>
@@ -31021,8 +35623,14 @@
       <c r="AL95">
         <v>3.3766610941856485</v>
       </c>
+      <c r="AN95">
+        <v>5.9825947707262914</v>
+      </c>
+      <c r="AO95">
+        <v>3.3766941290386692</v>
+      </c>
     </row>
-    <row r="96" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>6.2562173266222079</v>
       </c>
@@ -31095,8 +35703,14 @@
       <c r="AL96">
         <v>3.5694668858970076</v>
       </c>
+      <c r="AN96">
+        <v>6.2562173266222079</v>
+      </c>
+      <c r="AO96">
+        <v>3.5695014958736233</v>
+      </c>
     </row>
-    <row r="97" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>6.5423544027161773</v>
       </c>
@@ -31169,8 +35783,14 @@
       <c r="AL97">
         <v>3.7710947373869397</v>
       </c>
+      <c r="AN97">
+        <v>6.5423544027161773</v>
+      </c>
+      <c r="AO97">
+        <v>3.771131003615428</v>
+      </c>
     </row>
-    <row r="98" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>6.8415783685457701</v>
       </c>
@@ -31243,8 +35863,14 @@
       <c r="AL98">
         <v>3.9819470259585179</v>
       </c>
+      <c r="AN98">
+        <v>6.8415783685457701</v>
+      </c>
+      <c r="AO98">
+        <v>3.9819850314955771</v>
+      </c>
     </row>
-    <row r="99" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>7.1544877717906186</v>
       </c>
@@ -31317,8 +35943,14 @@
       <c r="AL99">
         <v>4.2024448367167473</v>
       </c>
+      <c r="AN99">
+        <v>7.1544877717906186</v>
+      </c>
+      <c r="AO99">
+        <v>4.202484666879176</v>
+      </c>
     </row>
-    <row r="100" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>7.4817085355672992</v>
       </c>
@@ -31391,8 +36023,14 @@
       <c r="AL100">
         <v>4.4330287388437686</v>
       </c>
+      <c r="AN100">
+        <v>7.4817085355672992</v>
+      </c>
+      <c r="AO100">
+        <v>4.4330704815401765</v>
+      </c>
     </row>
-    <row r="101" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>7.8238952104842276</v>
       </c>
@@ -31465,8 +36103,14 @@
       <c r="AL101">
         <v>4.6741596149258839</v>
       </c>
+      <c r="AN101">
+        <v>7.8238952104842276</v>
+      </c>
+      <c r="AO101">
+        <v>4.6742033609754241</v>
+      </c>
     </row>
-    <row r="102" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>8.1817322839610611</v>
       </c>
@@ -31539,8 +36183,14 @@
       <c r="AL102">
         <v>4.9263195416705878</v>
       </c>
+      <c r="AN102">
+        <v>8.1817322839610611</v>
+      </c>
+      <c r="AO102">
+        <v>4.9263653850977907</v>
+      </c>
     </row>
-    <row r="103" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>8.5559355494317391</v>
       </c>
@@ -31613,8 +36263,14 @@
       <c r="AL103">
         <v>5.1900127205515778</v>
       </c>
+      <c r="AN103">
+        <v>8.5559355494317391</v>
+      </c>
+      <c r="AO103">
+        <v>5.1900607588472649</v>
+      </c>
     </row>
-    <row r="104" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>8.9472535381699316</v>
       </c>
@@ -31686,6 +36342,12 @@
       </c>
       <c r="AL104">
         <v>5.4657664569540207</v>
+      </c>
+      <c r="AN104">
+        <v>8.9472535381699316</v>
+      </c>
+      <c r="AO104">
+        <v>5.4658167912912559</v>
       </c>
     </row>
   </sheetData>
@@ -32054,10 +36716,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB59ED-C169-460C-9A7C-ADA47916E364}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32070,10 +36732,23 @@
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -32090,28 +36765,71 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -32136,23 +36854,66 @@
         <v>2.3025850929940459</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I13" si="0">LN(5/A2)</f>
+        <f t="shared" ref="I2:I14" si="0">LN(5/A2)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J13" si="1">LN(B2)</f>
+        <f t="shared" ref="J2:J14" si="1">LN(B2)</f>
         <v>-2.5330377312836587</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K13" si="2">LN(C2)</f>
+        <f t="shared" ref="K2:K14" si="2">LN(C2)</f>
         <v>-2.5328399474977239</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L13" si="3">LN(D2)</f>
+        <f t="shared" ref="L2:L14" si="3">LN(D2)</f>
         <v>-2.5556287925030405</v>
       </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M4" si="4">LN(E2)</f>
+        <v>19.883882136210843</v>
+      </c>
+      <c r="O2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">_xll.xBlackImplied($O$1,$O$2,B2/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R2" s="3" cm="1">
+        <f t="array" ref="R2">_xll.xBlackImplied($O$1,$O$2,C2/$O$6,$O$4)</f>
+        <v>0.20002534030348479</v>
+      </c>
+      <c r="S2" s="3" cm="1">
+        <f t="array" ref="S2">_xll.xBlackImplied($O$1,$O$2,D2/$O$6,$O$4)</f>
+        <v>0.19713616590588001</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="V2" s="3">
+        <f>LN(5/P2)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="W2">
+        <f>LN(P2)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="X2">
+        <f>LN(Q2)</f>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AA14" si="5">LN(R2)</f>
+        <v>-1.6093112189426357</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="5"/>
+        <v>-1.6238605915193411</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -32173,7 +36934,7 @@
         <v>-1.1334854600714368E+17</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="4">LN(A3)</f>
+        <f t="shared" ref="H3:H14" si="6">LN(A3)</f>
         <v>3.2188758248682006</v>
       </c>
       <c r="I3">
@@ -32192,8 +36953,44 @@
         <f t="shared" si="3"/>
         <v>-2.5420392114097554</v>
       </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" cm="1">
+        <f t="array" ref="Q3">_xll.xBlackImplied($O$1,$O$2,B3/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R3" s="3" cm="1">
+        <f t="array" ref="R3">_xll.xBlackImplied($O$1,$O$2,C3/$O$6,$O$4)</f>
+        <v>0.20002078060874365</v>
+      </c>
+      <c r="S3" s="3" cm="1">
+        <f t="array" ref="S3">_xll.xBlackImplied($O$1,$O$2,D3/$O$6,$O$4)</f>
+        <v>0.19885165902169083</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V14" si="7">LN(5/P3)</f>
+        <v>-1.6094379124341003</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W14" si="8">LN(P3)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X14" si="9">LN(Q3)</f>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="5"/>
+        <v>-1.6093340147879296</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="5"/>
+        <v>-1.6151961642820698</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -32214,7 +37011,7 @@
         <v>4.8689145731882672E+19</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.912023005428146</v>
       </c>
       <c r="I4">
@@ -32233,8 +37030,51 @@
         <f t="shared" si="3"/>
         <v>-2.5375193229520603</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>45.331987798891056</v>
+      </c>
+      <c r="O4">
+        <v>0.86070797642505781</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="3" cm="1">
+        <f t="array" ref="Q4">_xll.xBlackImplied($O$1,$O$2,B4/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R4" s="3" cm="1">
+        <f t="array" ref="R4">_xll.xBlackImplied($O$1,$O$2,C4/$O$6,$O$4)</f>
+        <v>0.20000830487356072</v>
+      </c>
+      <c r="S4" s="3" cm="1">
+        <f t="array" ref="S4">_xll.xBlackImplied($O$1,$O$2,D4/$O$6,$O$4)</f>
+        <v>0.1994270659979207</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="V4" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>-1.6093963889284095</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>-1.6123066934646524</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>75</v>
       </c>
@@ -32255,7 +37095,7 @@
         <v>-2495921037118.2305</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="I5">
@@ -32274,8 +37114,44 @@
         <f t="shared" si="3"/>
         <v>-2.5360139864736069</v>
       </c>
+      <c r="P5">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="3" cm="1">
+        <f t="array" ref="Q5">_xll.xBlackImplied($O$1,$O$2,B5/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R5" s="3" cm="1">
+        <f t="array" ref="R5">_xll.xBlackImplied($O$1,$O$2,C5/$O$6,$O$4)</f>
+        <v>0.20000599355682783</v>
+      </c>
+      <c r="S5" s="3" cm="1">
+        <f t="array" ref="S5">_xll.xBlackImplied($O$1,$O$2,D5/$O$6,$O$4)</f>
+        <v>0.19961924327557759</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="V5" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.7080502011022101</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>-1.6094079450989862</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>-1.6113435105555609</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -32296,7 +37172,7 @@
         <v>7.9650601616177957E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6051701859880918</v>
       </c>
       <c r="I6">
@@ -32316,11 +37192,58 @@
         <v>-2.5352615727674772</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M13" si="5">LN(E6)</f>
+        <f>LN(E6)</f>
         <v>-2.530105689406922</v>
       </c>
+      <c r="O6">
+        <f>Calc_opg1_crank!C3</f>
+        <v>0.81873075307798182</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="3" cm="1">
+        <f t="array" ref="Q6">_xll.xBlackImplied($O$1,$O$2,B6/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R6" s="3" cm="1">
+        <f t="array" ref="R6">_xll.xBlackImplied($O$1,$O$2,C6/$O$6,$O$4)</f>
+        <v>0.20000518452783411</v>
+      </c>
+      <c r="S6" s="3" cm="1">
+        <f t="array" ref="S6">_xll.xBlackImplied($O$1,$O$2,D6/$O$6,$O$4)</f>
+        <v>0.19971540072561084</v>
+      </c>
+      <c r="T6" s="3" cm="1">
+        <f t="array" ref="T6">_xll.xBlackImplied($O$1,$O$2,E6/$O$6,$O$4)</f>
+        <v>0.20037613716077032</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.9957322735539909</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>-1.6094119901309156</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>-1.6108619222268936</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>-1.6075589929056027</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -32341,7 +37264,7 @@
         <v>7.9539449730871126E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.0106352940962555</v>
       </c>
       <c r="I7">
@@ -32361,11 +37284,54 @@
         <v>-2.5345093323409436</v>
       </c>
       <c r="M7">
+        <f t="shared" ref="M7:M14" si="10">LN(E7)</f>
+        <v>-2.5315021573699585</v>
+      </c>
+      <c r="P7">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="3" cm="1">
+        <f t="array" ref="Q7">_xll.xBlackImplied($O$1,$O$2,B7/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R7" s="3" cm="1">
+        <f t="array" ref="R7">_xll.xBlackImplied($O$1,$O$2,C7/$O$6,$O$4)</f>
+        <v>0.20000460662834008</v>
+      </c>
+      <c r="S7" s="3" cm="1">
+        <f t="array" ref="S7">_xll.xBlackImplied($O$1,$O$2,D7/$O$6,$O$4)</f>
+        <v>0.19981160360340386</v>
+      </c>
+      <c r="T7" s="3" cm="1">
+        <f t="array" ref="T7">_xll.xBlackImplied($O$1,$O$2,E7/$O$6,$O$4)</f>
+        <v>0.20019686264744962</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.4011973816621555</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>5.0106352940962555</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="5"/>
-        <v>-2.5315021573699585</v>
+        <v>-1.6094148795576588</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>-1.6103803383609225</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>-1.6084540833154699</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -32386,7 +37352,7 @@
         <v>7.9509569431431087E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2983173665480363</v>
       </c>
       <c r="I8">
@@ -32406,11 +37372,54 @@
         <v>-2.5341332779497967</v>
       </c>
       <c r="M8">
+        <f t="shared" si="10"/>
+        <v>-2.5318778943590825</v>
+      </c>
+      <c r="P8">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3" cm="1">
+        <f t="array" ref="Q8">_xll.xBlackImplied($O$1,$O$2,B8/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R8" s="3" cm="1">
+        <f t="array" ref="R8">_xll.xBlackImplied($O$1,$O$2,C8/$O$6,$O$4)</f>
+        <v>0.20000440435925607</v>
+      </c>
+      <c r="S8" s="3" cm="1">
+        <f t="array" ref="S8">_xll.xBlackImplied($O$1,$O$2,D8/$O$6,$O$4)</f>
+        <v>0.19985972197266108</v>
+      </c>
+      <c r="T8" s="3" cm="1">
+        <f t="array" ref="T8">_xll.xBlackImplied($O$1,$O$2,E8/$O$6,$O$4)</f>
+        <v>0.20014866655262564</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.6888794541139363</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="5"/>
-        <v>-2.5318778943590825</v>
+        <v>-1.6094158908802962</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>-1.6101395486599333</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>-1.6086948558059389</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>400</v>
       </c>
@@ -32431,7 +37440,7 @@
         <v>7.9464763129400387E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.9914645471079817</v>
       </c>
       <c r="I9">
@@ -32451,11 +37460,54 @@
         <v>-2.5335692795889337</v>
       </c>
       <c r="M9">
+        <f t="shared" si="10"/>
+        <v>-2.5324415866545036</v>
+      </c>
+      <c r="P9">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="3" cm="1">
+        <f t="array" ref="Q9">_xll.xBlackImplied($O$1,$O$2,B9/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R9" s="3" cm="1">
+        <f t="array" ref="R9">_xll.xBlackImplied($O$1,$O$2,C9/$O$6,$O$4)</f>
+        <v>0.20000420931197127</v>
+      </c>
+      <c r="S9" s="3" cm="1">
+        <f t="array" ref="S9">_xll.xBlackImplied($O$1,$O$2,D9/$O$6,$O$4)</f>
+        <v>0.19993192057095274</v>
+      </c>
+      <c r="T9" s="3" cm="1">
+        <f t="array" ref="T9">_xll.xBlackImplied($O$1,$O$2,E9/$O$6,$O$4)</f>
+        <v>0.20007639300410038</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.3820266346738812</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>5.9914645471079817</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="5"/>
-        <v>-2.5324415866545036</v>
+        <v>-1.6094168660957198</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>-1.6097783675275956</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>-1.6090560203436663</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
@@ -32476,7 +37528,7 @@
         <v>7.9442366369053274E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.6846117276679271</v>
       </c>
       <c r="I10">
@@ -32496,11 +37548,54 @@
         <v>-2.5332873181684521</v>
       </c>
       <c r="M10">
+        <f t="shared" si="10"/>
+        <v>-2.5327234715588012</v>
+      </c>
+      <c r="P10">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="3" cm="1">
+        <f t="array" ref="Q10">_xll.xBlackImplied($O$1,$O$2,B10/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R10" s="3" cm="1">
+        <f t="array" ref="R10">_xll.xBlackImplied($O$1,$O$2,C10/$O$6,$O$4)</f>
+        <v>0.20000416054983156</v>
+      </c>
+      <c r="S10" s="3" cm="1">
+        <f t="array" ref="S10">_xll.xBlackImplied($O$1,$O$2,D10/$O$6,$O$4)</f>
+        <v>0.1999680293014614</v>
+      </c>
+      <c r="T10" s="3" cm="1">
+        <f t="array" ref="T10">_xll.xBlackImplied($O$1,$O$2,E10/$O$6,$O$4)</f>
+        <v>0.20004026553593751</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.0751738152338266</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>6.6846117276679271</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="5"/>
-        <v>-2.5327234715588012</v>
+        <v>-1.6094171099013168</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="5"/>
+        <v>-1.6095977787047246</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>-1.6092366050181104</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -32521,7 +37616,7 @@
         <v>7.9431169591473338E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.3777589082278725</v>
       </c>
       <c r="I11">
@@ -32541,11 +37636,54 @@
         <v>-2.5331463469603461</v>
       </c>
       <c r="M11">
+        <f t="shared" si="10"/>
+        <v>-2.5328644236378337</v>
+      </c>
+      <c r="P11">
+        <v>1600</v>
+      </c>
+      <c r="Q11" s="3" cm="1">
+        <f t="array" ref="Q11">_xll.xBlackImplied($O$1,$O$2,B11/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R11" s="3" cm="1">
+        <f t="array" ref="R11">_xll.xBlackImplied($O$1,$O$2,C11/$O$6,$O$4)</f>
+        <v>0.20000414835927341</v>
+      </c>
+      <c r="S11" s="3" cm="1">
+        <f t="array" ref="S11">_xll.xBlackImplied($O$1,$O$2,D11/$O$6,$O$4)</f>
+        <v>0.19998608601676174</v>
+      </c>
+      <c r="T11" s="3" cm="1">
+        <f t="array" ref="T11">_xll.xBlackImplied($O$1,$O$2,E11/$O$6,$O$4)</f>
+        <v>0.20002220413622251</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="7"/>
+        <v>-5.768320995793772</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>7.3777589082278725</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="5"/>
-        <v>-2.5328644236378337</v>
+        <v>-1.6094171708528413</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>-1.6095074847703905</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>-1.6093268979153275</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3200</v>
       </c>
@@ -32566,7 +37704,7 @@
         <v>7.9425571603964892E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0709060887878188</v>
       </c>
       <c r="I12">
@@ -32586,11 +37724,54 @@
         <v>-2.5330758637398874</v>
       </c>
       <c r="M12">
+        <f t="shared" si="10"/>
+        <v>-2.5329349020760623</v>
+      </c>
+      <c r="P12">
+        <v>3200</v>
+      </c>
+      <c r="Q12" s="3" cm="1">
+        <f t="array" ref="Q12">_xll.xBlackImplied($O$1,$O$2,B12/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R12" s="3" cm="1">
+        <f t="array" ref="R12">_xll.xBlackImplied($O$1,$O$2,C12/$O$6,$O$4)</f>
+        <v>0.20000414531166416</v>
+      </c>
+      <c r="S12" s="3" cm="1">
+        <f t="array" ref="S12">_xll.xBlackImplied($O$1,$O$2,D12/$O$6,$O$4)</f>
+        <v>0.19999511496091063</v>
+      </c>
+      <c r="T12" s="3" cm="1">
+        <f t="array" ref="T12">_xll.xBlackImplied($O$1,$O$2,E12/$O$6,$O$4)</f>
+        <v>0.20001317402096469</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.4614681763537174</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>8.0709060887878188</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="5"/>
-        <v>-2.5329349020760623</v>
+        <v>-1.6094171860905717</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>-1.6094623379278472</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>-1.609372044498617</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6400</v>
       </c>
@@ -32611,7 +37792,7 @@
         <v>7.9422772710569314E-2</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.7640532693477624</v>
       </c>
       <c r="I13">
@@ -32631,9 +37812,188 @@
         <v>-2.5330406227255327</v>
       </c>
       <c r="M13">
+        <f t="shared" si="10"/>
+        <v>-2.5329701418943675</v>
+      </c>
+      <c r="P13">
+        <v>6400</v>
+      </c>
+      <c r="Q13" s="3" cm="1">
+        <f t="array" ref="Q13">_xll.xBlackImplied($O$1,$O$2,B13/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R13" s="3" cm="1">
+        <f t="array" ref="R13">_xll.xBlackImplied($O$1,$O$2,C13/$O$6,$O$4)</f>
+        <v>0.20000414454976045</v>
+      </c>
+      <c r="S13" s="3" cm="1">
+        <f t="array" ref="S13">_xll.xBlackImplied($O$1,$O$2,D13/$O$6,$O$4)</f>
+        <v>0.19999962957961531</v>
+      </c>
+      <c r="T13" s="3" cm="1">
+        <f t="array" ref="T13">_xll.xBlackImplied($O$1,$O$2,E13/$O$6,$O$4)</f>
+        <v>0.20000865910954596</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="7"/>
+        <v>-7.1546153569136628</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>8.7640532693477624</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="5"/>
-        <v>-2.5329701418943675</v>
-      </c>
+        <v>-1.6094171899000114</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="5"/>
+        <v>-1.609439764537739</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>-1.6093946178235958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14">
+        <f>Calc_opg1_crank!$B$24</f>
+        <v>7.9417404755276449E-2</v>
+      </c>
+      <c r="C14">
+        <f>Calc_opg1_crank!AO2</f>
+        <v>7.9419973886842604E-2</v>
+      </c>
+      <c r="D14">
+        <f>Calc_opg1_imp!AO2</f>
+        <v>7.9419615640161062E-2</v>
+      </c>
+      <c r="E14">
+        <f>Calc_opg1_exp!AO2</f>
+        <v>7.9420332130106228E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>10.819778284410283</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-2.5330377312836587</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>-2.5330053820773406</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>-2.5330098928757203</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>-2.5330008713423435</v>
+      </c>
+      <c r="P14">
+        <v>50000</v>
+      </c>
+      <c r="Q14" s="3" cm="1">
+        <f t="array" ref="Q14">_xll.xBlackImplied($O$1,$O$2,B14/$O$6,$O$4)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="R14" s="3" cm="1">
+        <f t="array" ref="R14">_xll.xBlackImplied($O$1,$O$2,C14/$O$6,$O$4)</f>
+        <v>0.20000414430005695</v>
+      </c>
+      <c r="S14" s="3" cm="1">
+        <f t="array" ref="S14">_xll.xBlackImplied($O$1,$O$2,D14/$O$6,$O$4)</f>
+        <v>0.20000356640813258</v>
+      </c>
+      <c r="T14" s="3" cm="1">
+        <f t="array" ref="T14">_xll.xBlackImplied($O$1,$O$2,E14/$O$6,$O$4)</f>
+        <v>0.20000472218629659</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="7"/>
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>10.819778284410283</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>-1.6094379124340998</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>-1.6094171911485029</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="5"/>
+        <v>-1.6094200805524264</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>-1.6094143017813511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32643,388 +38003,486 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D680DE-80A1-4AE5-B7E2-D89BB812F5C3}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <f>LN(5/Convergence!A2)</f>
-        <v>-0.69314718055994529</v>
+        <f t="shared" ref="B2:B14" si="0">LN(A2)</f>
+        <v>2.3025850929940459</v>
       </c>
       <c r="C2">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R2</f>
+        <v>0.20002534030348479</v>
       </c>
       <c r="D2">
-        <f>Calc_opg1_crank!E2</f>
-        <v>7.9433113783702408E-2</v>
+        <f>Log_graph!S2</f>
+        <v>0.19713616590588001</v>
       </c>
       <c r="E2">
-        <f>LN(D2)</f>
-        <v>-2.5328399474977239</v>
+        <f>Log_graph!T2</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>Calc_opg1_imp!E2</f>
-        <v>7.7643395129993104E-2</v>
+        <f>LN(ABS(C$14-C2))</f>
+        <v>-10.761697911612577</v>
       </c>
       <c r="H2">
-        <f>Calc_opg1_exp!E2</f>
-        <v>431976668.3111397</v>
+        <f>LN(ABS(D$14-D2))</f>
+        <v>-5.8543494079925473</v>
+      </c>
+      <c r="I2">
+        <f>LN(ABS(E$14-E2))</f>
+        <v>-1.6094143017813511</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
-        <f>LN(5/Convergence!A3)</f>
-        <v>-1.6094379124341003</v>
+        <f t="shared" si="0"/>
+        <v>3.2188758248682006</v>
       </c>
       <c r="C3">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R3</f>
+        <v>0.20002078060874365</v>
       </c>
       <c r="D3">
-        <f>Calc_opg1_crank!H2</f>
-        <v>7.9430287110535319E-2</v>
+        <f>Log_graph!S3</f>
+        <v>0.19885165902169083</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">LN(D3)</f>
-        <v>-2.5328755337076565</v>
+        <f>Log_graph!T3</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>Calc_opg1_imp!H2</f>
-        <v>7.8705738395325006E-2</v>
+        <f t="shared" ref="G3:G13" si="1">LN(ABS(C$14-C3))</f>
+        <v>-11.003922980911826</v>
       </c>
       <c r="H3">
-        <f>Calc_opg1_exp!H2</f>
-        <v>-1.1334854600714368E+17</v>
+        <f t="shared" ref="H3:H13" si="2">LN(ABS(D$14-D3))</f>
+        <v>-6.7663361136539466</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="3">LN(ABS(E$14-E3))</f>
+        <v>-1.6094143017813511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
-        <f>LN(5/Convergence!A4)</f>
-        <v>-2.3025850929940455</v>
+        <f t="shared" si="0"/>
+        <v>3.912023005428146</v>
       </c>
       <c r="C4">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R4</f>
+        <v>0.20000830487356072</v>
       </c>
       <c r="D4">
-        <f>Calc_opg1_crank!K2</f>
-        <v>7.9422553112125455E-2</v>
+        <f>Log_graph!S4</f>
+        <v>0.1994270659979207</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-2.5329729068286548</v>
+        <f>Log_graph!T4</f>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f>Calc_opg1_imp!K2</f>
-        <v>7.9062284721663101E-2</v>
+        <f t="shared" si="1"/>
+        <v>-12.389857631708676</v>
       </c>
       <c r="H4">
-        <f>Calc_opg1_exp!K2</f>
-        <v>4.8689145731882672E+19</v>
+        <f t="shared" si="2"/>
+        <v>-7.4585345066996949</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>-1.6094143017813511</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>75</v>
       </c>
       <c r="B5">
-        <f>LN(5/Convergence!A5)</f>
-        <v>-2.7080502011022101</v>
+        <f t="shared" si="0"/>
+        <v>4.3174881135363101</v>
       </c>
       <c r="C5">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R5</f>
+        <v>0.20000599355682783</v>
       </c>
       <c r="D5">
-        <f>Calc_opg1_crank!N2</f>
-        <v>7.9421120278556828E-2</v>
+        <f>Log_graph!S5</f>
+        <v>0.19961924327557759</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-2.5329909476298789</v>
+        <f>Log_graph!T5</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>Calc_opg1_imp!N2</f>
-        <v>7.9181389686957634E-2</v>
+        <f t="shared" si="1"/>
+        <v>-13.200726745065346</v>
       </c>
       <c r="H5">
-        <f>Calc_opg1_exp!N2</f>
-        <v>-2495921037118.2305</v>
+        <f t="shared" si="2"/>
+        <v>-7.8640268682030152</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-1.6094143017813511</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6">
-        <f>LN(5/Convergence!A6)</f>
-        <v>-2.9957322735539909</v>
+        <f t="shared" si="0"/>
+        <v>4.6051701859880918</v>
       </c>
       <c r="C6">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R6</f>
+        <v>0.20000518452783411</v>
       </c>
       <c r="D6">
-        <f>Calc_opg1_crank!Q2</f>
-        <v>7.9420618744969376E-2</v>
+        <f>Log_graph!S6</f>
+        <v>0.19971540072561084</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-2.5329972625139958</v>
+        <f>Log_graph!T6</f>
+        <v>0.20037613716077032</v>
       </c>
       <c r="G6">
-        <f>Calc_opg1_imp!Q2</f>
-        <v>7.9240989268787906E-2</v>
+        <f t="shared" si="1"/>
+        <v>-13.776070852285887</v>
       </c>
       <c r="H6">
-        <f>Calc_opg1_exp!Q2</f>
-        <v>7.9650601616177957E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.1519749567083686</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>-7.8981905908661627</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
       <c r="B7">
-        <f>LN(5/Convergence!A7)</f>
-        <v>-3.4011973816621555</v>
+        <f t="shared" si="0"/>
+        <v>5.0106352940962555</v>
       </c>
       <c r="C7">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R7</f>
+        <v>0.20000460662834008</v>
       </c>
       <c r="D7">
-        <f>Calc_opg1_crank!T2</f>
-        <v>7.942026049340413E-2</v>
+        <f>Log_graph!S7</f>
+        <v>0.19981160360340386</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>-2.5330017733372419</v>
+        <f>Log_graph!T7</f>
+        <v>0.20019686264744962</v>
       </c>
       <c r="G7">
-        <f>Calc_opg1_imp!T2</f>
-        <v>7.9300619969854491E-2</v>
+        <f t="shared" si="1"/>
+        <v>-14.586990628655244</v>
       </c>
       <c r="H7">
-        <f>Calc_opg1_exp!T2</f>
-        <v>7.9539449730871126E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.5582089300749367</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-8.5572838848968775</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
       <c r="B8">
-        <f>LN(5/Convergence!A8)</f>
-        <v>-3.6888794541139363</v>
+        <f t="shared" si="0"/>
+        <v>5.2983173665480363</v>
       </c>
       <c r="C8">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R8</f>
+        <v>0.20000440435925607</v>
       </c>
       <c r="D8">
-        <f>Calc_opg1_crank!W2</f>
-        <v>7.9420135102739903E-2</v>
+        <f>Log_graph!S8</f>
+        <v>0.19985972197266108</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-2.5330033521631288</v>
+        <f>Log_graph!T8</f>
+        <v>0.20014866655262564</v>
       </c>
       <c r="G8">
-        <f>Calc_opg1_imp!W2</f>
-        <v>7.9330446924141873E-2</v>
+        <f t="shared" si="1"/>
+        <v>-15.162356542925936</v>
       </c>
       <c r="H8">
-        <f>Calc_opg1_exp!W2</f>
-        <v>7.9509569431431087E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.8467781515686106</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>-8.8460836779758072</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>400</v>
       </c>
       <c r="B9">
-        <f>LN(5/Convergence!A9)</f>
-        <v>-4.3820266346738812</v>
+        <f t="shared" si="0"/>
+        <v>5.9914645471079817</v>
       </c>
       <c r="C9">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R9</f>
+        <v>0.20000420931197127</v>
       </c>
       <c r="D9">
-        <f>Calc_opg1_crank!Z2</f>
-        <v>7.9420014189026208E-2</v>
+        <f>Log_graph!S9</f>
+        <v>0.19993192057095274</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>-2.5330048746209486</v>
+        <f>Log_graph!T9</f>
+        <v>0.20007639300410038</v>
       </c>
       <c r="G9">
-        <f>Calc_opg1_imp!Z2</f>
-        <v>7.9375201785821567E-2</v>
+        <f t="shared" si="1"/>
+        <v>-16.548695286552661</v>
       </c>
       <c r="H9">
-        <f>Calc_opg1_exp!Z2</f>
-        <v>7.9464763129400387E-2</v>
+        <f t="shared" si="2"/>
+        <v>-9.5437755047521833</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>-9.5434268973385628</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
       <c r="B10">
-        <f>LN(5/Convergence!A10)</f>
-        <v>-5.0751738152338266</v>
+        <f t="shared" si="0"/>
+        <v>6.6846117276679271</v>
       </c>
       <c r="C10">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R10</f>
+        <v>0.20000416054983156</v>
       </c>
       <c r="D10">
-        <f>Calc_opg1_crank!AC2</f>
-        <v>7.941998396040216E-2</v>
+        <f>Log_graph!S10</f>
+        <v>0.1999680293014614</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>-2.5330052552382289</v>
+        <f>Log_graph!T10</f>
+        <v>0.20004026553593751</v>
       </c>
       <c r="G10">
-        <f>Calc_opg1_imp!AC2</f>
-        <v>7.9397585686017971E-2</v>
+        <f t="shared" si="1"/>
+        <v>-17.935186798467853</v>
       </c>
       <c r="H10">
-        <f>Calc_opg1_exp!AC2</f>
-        <v>7.9442366369053274E-2</v>
+        <f t="shared" si="2"/>
+        <v>-10.244933149042103</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-10.244757489793633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1600</v>
       </c>
       <c r="B11">
-        <f>LN(5/Convergence!A11)</f>
-        <v>-5.768320995793772</v>
+        <f t="shared" si="0"/>
+        <v>7.3777589082278725</v>
       </c>
       <c r="C11">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R11</f>
+        <v>0.20000414835927341</v>
       </c>
       <c r="D11">
-        <f>Calc_opg1_crank!AF2</f>
-        <v>7.9419976403231868E-2</v>
+        <f>Log_graph!S11</f>
+        <v>0.19998608601676174</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>-2.5330053503927514</v>
+        <f>Log_graph!T11</f>
+        <v>0.20002220413622251</v>
       </c>
       <c r="G11">
-        <f>Calc_opg1_imp!AF2</f>
-        <v>7.9408779248559325E-2</v>
+        <f t="shared" si="1"/>
+        <v>-19.322275871376497</v>
       </c>
       <c r="H11">
-        <f>Calc_opg1_exp!AF2</f>
-        <v>7.9431169591473338E-2</v>
+        <f t="shared" si="2"/>
+        <v>-10.954430798351442</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-10.954341642131705</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3200</v>
       </c>
       <c r="B12">
-        <f>LN(5/Convergence!A12)</f>
-        <v>-6.4614681763537174</v>
+        <f t="shared" si="0"/>
+        <v>8.0709060887878188</v>
       </c>
       <c r="C12">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R12</f>
+        <v>0.20000414531166416</v>
       </c>
       <c r="D12">
-        <f>Calc_opg1_crank!AI2</f>
-        <v>7.941997451395813E-2</v>
+        <f>Log_graph!S12</f>
+        <v>0.19999511496091063</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>-2.5330053741811467</v>
+        <f>Log_graph!T12</f>
+        <v>0.20001317402096469</v>
       </c>
       <c r="G12">
-        <f>Calc_opg1_imp!AI2</f>
-        <v>7.9414376432304895E-2</v>
+        <f t="shared" si="1"/>
+        <v>-20.711725469225939</v>
       </c>
       <c r="H12">
-        <f>Calc_opg1_exp!AI2</f>
-        <v>7.9425571603964892E-2</v>
+        <f t="shared" si="2"/>
+        <v>-11.681172862390612</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>-11.681127019676627</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6400</v>
       </c>
       <c r="B13">
-        <f>LN(5/Convergence!A13)</f>
-        <v>-7.1546153569136628</v>
+        <f t="shared" si="0"/>
+        <v>8.7640532693477624</v>
       </c>
       <c r="C13">
-        <f>Calc_opg1_crank!$B$24</f>
-        <v>7.9417404755276449E-2</v>
+        <f>Log_graph!R13</f>
+        <v>0.20000414454976045</v>
       </c>
       <c r="D13">
-        <f>Calc_opg1_crank!AL2</f>
-        <v>7.9419974041638738E-2</v>
+        <f>Log_graph!S13</f>
+        <v>0.19999962957961531</v>
       </c>
       <c r="E13">
+        <f>Log_graph!T13</f>
+        <v>0.20000865910954596</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-22.110746870400323</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-12.445135103653165</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>-12.445111040890239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>-2.5330053801282575</v>
-      </c>
-      <c r="G13">
-        <f>Calc_opg1_imp!AL2</f>
-        <v>7.9417175124798817E-2</v>
-      </c>
-      <c r="H13">
-        <f>Calc_opg1_exp!AL2</f>
-        <v>7.9422772710569314E-2</v>
+        <v>10.819778284410283</v>
+      </c>
+      <c r="C14">
+        <f>Log_graph!R14</f>
+        <v>0.20000414430005695</v>
+      </c>
+      <c r="D14">
+        <f>Log_graph!S14</f>
+        <v>0.20000356640813258</v>
+      </c>
+      <c r="E14">
+        <f>Log_graph!T14</f>
+        <v>0.20000472218629659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="2">
+        <f>(G12-G4)/(B12-B4)</f>
+        <v>-2.0009862433532528</v>
+      </c>
+      <c r="H16" s="2">
+        <f>(H12-H2)/($B12-$B2)</f>
+        <v>-1.0101420254952787</v>
+      </c>
+      <c r="I16" s="2">
+        <f>(I12-I6)/($B12-$B6)</f>
+        <v>-1.0915247251686122</v>
       </c>
     </row>
   </sheetData>

--- a/Opgave 1.xlsx
+++ b/Opgave 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91c933c6e1bc87e3/Dokumenter/Uni/34. PUK/Aflevering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\source\repos\SaxoPUKCompFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="814" documentId="8_{4F4526E9-73E1-4EA3-AC33-82BC91DDE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97D0593-A0D9-47D7-AF7B-30183F92D7E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41723213-83C7-46E6-80D4-665939A1FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_opg1_crank" sheetId="1" r:id="rId1"/>
@@ -8760,10 +8760,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -36718,8 +36714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB59ED-C169-460C-9A7C-ADA47916E364}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38005,7 +38001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D680DE-80A1-4AE5-B7E2-D89BB812F5C3}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/Opgave 1.xlsx
+++ b/Opgave 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shark\source\repos\VNemirov\SaxoPUKCompFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E78B0-0D72-4453-A0D9-3C7E6039AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD705FA1-49F4-47B1-881D-FE8EADC43D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1185" windowWidth="36285" windowHeight="19665" firstSheet="1" activeTab="5" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
+    <workbookView xWindow="2115" yWindow="1320" windowWidth="36285" windowHeight="19665" firstSheet="1" activeTab="5" xr2:uid="{BC0D82F4-492A-4D65-855B-6D8E48A1622B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_opg1_crank" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Convergence" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -38000,10 +37999,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D680DE-80A1-4AE5-B7E2-D89BB812F5C3}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38482,6 +38481,20 @@
         <v>-1.0915247251686122</v>
       </c>
     </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>SLOPE(G2:G13,B2:B13)</f>
+        <v>-1.8842491298953825</v>
+      </c>
+      <c r="H19">
+        <f>SLOPE(H2:H13,B2:B13)</f>
+        <v>-1.0156003354891383</v>
+      </c>
+      <c r="I19">
+        <f>SLOPE(I6:I13,B6:B13)</f>
+        <v>-1.0571744279398998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
